--- a/CWE-List/CWE-List_v4.4.xlsx
+++ b/CWE-List/CWE-List_v4.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CWE List\v4.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7945C4ED-C4A1-4468-86CF-2B57ABE2F9BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC61B8D5-69E0-47DC-A1A3-1649965AD173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="4918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="4918">
   <si>
     <t>CWE-1</t>
   </si>
@@ -12616,9 +12616,6 @@
   </si>
   <si>
     <t>A device's internal information may be accessed through a scan chain of interconnected internal registers usually through a JTAG interface. The JTAG interface provides access to these registers in a serial fashion in the form of a scan chain for the purposes of debugging programs running on a device. Since almost all information contained within a device may be accessed over this interface, device manufacturers typically insert some form of authentication and authorization to prevent unintended use of this sensitive information. This mechanism is implemented in addition to on-chip protections that are already present. If this control is not implemented or not implemented properly a user may be able to bypass on-chip protection mechanisms through debug interface.</t>
-  </si>
-  <si>
-    <t>Weaknesses in this category are those that arise due to integration of multiple hardware Intellectual Property (IP) cores, from System-on-a-Chip (SoC) subsystem interactions, or from hardware platform subsystem interactions.</t>
   </si>
   <si>
     <t>Devices may allow device configuration controls which need to be programmed after device power reset via a trusted firmware or software module (commonly set by BIOS/bootloader) and then locked from any further modification. This action is commonly implemented using a programmable lock bit, which, when set, disables writes to a protected set of registers or address regions. After a power state transition, the lock bit is set to unlocked. Until the Some common weaknesses that can exist in such a protection scheme is that the lock gets cleared, the values of the protected registers get reset, or the lock become programmable.</t>
@@ -13300,12 +13297,6 @@
   </si>
   <si>
     <t>Inefficient Regular Expression Complexity</t>
-  </si>
-  <si>
-    <t>The number of possible backtracking attempts are exponential relative to the length of the input.</t>
-  </si>
-  <si>
-    <t>The input can be long enough.</t>
   </si>
   <si>
     <t>Some regular expression engines have a feature called "backtracking". If the token cannot match, the engine "backtracks" to a position that may result in a different token that can match. Backtracking becomes a weakness if all of these conditions are met:
@@ -14886,18 +14877,37 @@
   <si>
     <t>The software does not properly manage privileges while it is switching between different contexts that have different privileges or spheres of control.</t>
   </si>
+  <si>
+    <t>CWE-453</t>
+  </si>
+  <si>
+    <t>To ensure the performance and functional reliability of certain components, hardware designers can implement hardware blocks for redundancy in the case that others fail. This redundant block can be prevented from performing as intended if the design allows unauthorized agents to inject errors into it. In this way, a path with injected errors may become</t>
+  </si>
+  <si>
+    <t>Hardware, electrical circuits, and semiconductor silicon have thermal side effects, such that some of the energy consumed by the device gets dissipated as heat and increases the temperature of the device. For example, in semiconductors, higher-operating frequency of silicon results in higher power dissipation and heat. The leakage current in CMOS circuits increases with temperature, and this creates positive feedback that can result in thermal runaway and damage the device permanently.
+Any device lacking protections such as thermal sensors, adequate platform cooling or thermal insulation is susceptible to attacks by malicious software that might deliberately operate the device in modes that result in overheating. This can be used as an effective denial of service (DoS) or permanent denial of service (PDoS) attack.
+Depending on the type of hardware device and its expected usage, such thermal overheating can also cause safety hazards and reliability issues. Note that battery failures can also cause device overheating but the mitigations and examples included in this submission cannot reliably protect against a battery failure.
+There can be similar weaknesses with lack of protection from attacks based on overvoltage or overcurrent conditions. However, thermal heat is generated by hardware operation and the device should implement protection from overheating.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15046,12 +15056,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -15065,128 +15075,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15593,8 +15604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15637,10 +15648,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4424</v>
+        <v>4421</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4425</v>
+        <v>4422</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -15678,8 +15689,8 @@
       <c r="C6" s="6" t="s">
         <v>1853</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>4519</v>
+      <c r="D6" s="45" t="s">
+        <v>4516</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -15721,7 +15732,7 @@
         <v>1926</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4547</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -15774,8 +15785,8 @@
       <c r="C13" s="6" t="s">
         <v>1929</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>4510</v>
+      <c r="D13" s="41" t="s">
+        <v>4507</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -15788,8 +15799,8 @@
       <c r="C14" s="6" t="s">
         <v>1930</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>4669</v>
+      <c r="D14" s="45" t="s">
+        <v>4666</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -15878,8 +15889,8 @@
       <c r="C21" s="6" t="s">
         <v>1857</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>4690</v>
+      <c r="D21" s="50" t="s">
+        <v>4687</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16114,8 +16125,8 @@
       <c r="C38" s="6" t="s">
         <v>3152</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>4576</v>
+      <c r="D38" s="45" t="s">
+        <v>4573</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -16128,8 +16139,8 @@
       <c r="C39" s="6" t="s">
         <v>3153</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>4598</v>
+      <c r="D39" s="62" t="s">
+        <v>4595</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -16142,8 +16153,8 @@
       <c r="C40" s="6" t="s">
         <v>2318</v>
       </c>
-      <c r="D40" s="56" t="s">
-        <v>4706</v>
+      <c r="D40" s="55" t="s">
+        <v>4703</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -16156,8 +16167,8 @@
       <c r="C41" s="6" t="s">
         <v>2319</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>4623</v>
+      <c r="D41" s="45" t="s">
+        <v>4620</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -16184,8 +16195,8 @@
       <c r="C43" s="9" t="s">
         <v>1934</v>
       </c>
-      <c r="D43" s="42" t="s">
-        <v>4484</v>
+      <c r="D43" s="41" t="s">
+        <v>4481</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -16198,8 +16209,8 @@
       <c r="C44" s="9" t="s">
         <v>1935</v>
       </c>
-      <c r="D44" s="56" t="s">
-        <v>4731</v>
+      <c r="D44" s="55" t="s">
+        <v>4728</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -16212,8 +16223,8 @@
       <c r="C45" s="9" t="s">
         <v>1936</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>4804</v>
+      <c r="D45" s="55" t="s">
+        <v>4801</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -16226,8 +16237,8 @@
       <c r="C46" s="9" t="s">
         <v>1937</v>
       </c>
-      <c r="D46" s="56" t="s">
-        <v>4802</v>
+      <c r="D46" s="55" t="s">
+        <v>4799</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -16240,8 +16251,8 @@
       <c r="C47" s="9" t="s">
         <v>1923</v>
       </c>
-      <c r="D47" s="46" t="s">
-        <v>4528</v>
+      <c r="D47" s="45" t="s">
+        <v>4525</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -16254,8 +16265,8 @@
       <c r="C48" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="D48" s="56" t="s">
-        <v>4886</v>
+      <c r="D48" s="55" t="s">
+        <v>4883</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -16268,8 +16279,8 @@
       <c r="C49" s="9" t="s">
         <v>1925</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>4620</v>
+      <c r="D49" s="45" t="s">
+        <v>4617</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -16282,8 +16293,8 @@
       <c r="C50" s="9" t="s">
         <v>1938</v>
       </c>
-      <c r="D50" s="46" t="s">
-        <v>4675</v>
+      <c r="D50" s="45" t="s">
+        <v>4672</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -16296,8 +16307,8 @@
       <c r="C51" s="9" t="s">
         <v>1939</v>
       </c>
-      <c r="D51" s="56" t="s">
-        <v>4736</v>
+      <c r="D51" s="55" t="s">
+        <v>4733</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -16310,8 +16321,8 @@
       <c r="C52" s="9" t="s">
         <v>1940</v>
       </c>
-      <c r="D52" s="56" t="s">
-        <v>4763</v>
+      <c r="D52" s="55" t="s">
+        <v>4760</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -16324,8 +16335,8 @@
       <c r="C53" s="9" t="s">
         <v>1941</v>
       </c>
-      <c r="D53" s="46" t="s">
-        <v>4665</v>
+      <c r="D53" s="45" t="s">
+        <v>4662</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -16338,8 +16349,8 @@
       <c r="C54" s="9" t="s">
         <v>1942</v>
       </c>
-      <c r="D54" s="56" t="s">
-        <v>4727</v>
+      <c r="D54" s="55" t="s">
+        <v>4724</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -16352,8 +16363,8 @@
       <c r="C55" s="9" t="s">
         <v>1943</v>
       </c>
-      <c r="D55" s="56" t="s">
-        <v>4772</v>
+      <c r="D55" s="55" t="s">
+        <v>4769</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -16366,8 +16377,8 @@
       <c r="C56" s="9" t="s">
         <v>1944</v>
       </c>
-      <c r="D56" s="42" t="s">
-        <v>4517</v>
+      <c r="D56" s="41" t="s">
+        <v>4514</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -16380,8 +16391,8 @@
       <c r="C57" s="9" t="s">
         <v>1945</v>
       </c>
-      <c r="D57" s="46" t="s">
-        <v>4622</v>
+      <c r="D57" s="45" t="s">
+        <v>4619</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -16394,8 +16405,8 @@
       <c r="C58" s="9" t="s">
         <v>1946</v>
       </c>
-      <c r="D58" s="56" t="s">
-        <v>4836</v>
+      <c r="D58" s="55" t="s">
+        <v>4833</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -16422,8 +16433,8 @@
       <c r="C60" s="6" t="s">
         <v>1948</v>
       </c>
-      <c r="D60" s="46" t="s">
-        <v>4666</v>
+      <c r="D60" s="45" t="s">
+        <v>4663</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16582,8 +16593,8 @@
       <c r="C72" s="7" t="s">
         <v>2701</v>
       </c>
-      <c r="D72" s="48" t="s">
-        <v>4530</v>
+      <c r="D72" s="47" t="s">
+        <v>4527</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -16638,8 +16649,8 @@
       <c r="C76" s="6" t="s">
         <v>1969</v>
       </c>
-      <c r="D76" s="56" t="s">
-        <v>4812</v>
+      <c r="D76" s="55" t="s">
+        <v>4809</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -16694,8 +16705,8 @@
       <c r="C80" s="6" t="s">
         <v>1965</v>
       </c>
-      <c r="D80" s="51" t="s">
-        <v>4567</v>
+      <c r="D80" s="50" t="s">
+        <v>4564</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -16750,8 +16761,8 @@
       <c r="C84" s="6" t="s">
         <v>1973</v>
       </c>
-      <c r="D84" s="56" t="s">
-        <v>4786</v>
+      <c r="D84" s="55" t="s">
+        <v>4783</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -16764,8 +16775,8 @@
       <c r="C85" s="6" t="s">
         <v>1974</v>
       </c>
-      <c r="D85" s="56" t="s">
-        <v>4733</v>
+      <c r="D85" s="55" t="s">
+        <v>4730</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -16778,8 +16789,8 @@
       <c r="C86" s="6" t="s">
         <v>1975</v>
       </c>
-      <c r="D86" s="56" t="s">
-        <v>4766</v>
+      <c r="D86" s="55" t="s">
+        <v>4763</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -16806,8 +16817,8 @@
       <c r="C88" s="6" t="s">
         <v>1977</v>
       </c>
-      <c r="D88" s="46" t="s">
-        <v>4628</v>
+      <c r="D88" s="45" t="s">
+        <v>4625</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -16815,10 +16826,10 @@
         <v>159</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>4498</v>
+        <v>4495</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>3314</v>
@@ -16849,7 +16860,7 @@
         <v>1964</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>4663</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -16877,7 +16888,7 @@
         <v>2374</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>4511</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -16891,7 +16902,7 @@
         <v>1918</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>4662</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -16933,7 +16944,7 @@
         <v>1979</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>4689</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -16947,7 +16958,7 @@
         <v>1980</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>4466</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -17041,7 +17052,7 @@
         <v>2033</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>4597</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -17111,7 +17122,7 @@
         <v>2032</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>4588</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -17195,7 +17206,7 @@
         <v>1952</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>4856</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -17237,7 +17248,7 @@
         <v>1955</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>4704</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -17278,8 +17289,8 @@
       <c r="C122" s="6" t="s">
         <v>1855</v>
       </c>
-      <c r="D122" s="56" t="s">
-        <v>4830</v>
+      <c r="D122" s="55" t="s">
+        <v>4827</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -17292,8 +17303,8 @@
       <c r="C123" s="6" t="s">
         <v>1901</v>
       </c>
-      <c r="D123" s="56" t="s">
-        <v>4862</v>
+      <c r="D123" s="55" t="s">
+        <v>4859</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -17306,8 +17317,8 @@
       <c r="C124" s="6" t="s">
         <v>1906</v>
       </c>
-      <c r="D124" s="56" t="s">
-        <v>4827</v>
+      <c r="D124" s="55" t="s">
+        <v>4824</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -17376,8 +17387,8 @@
       <c r="C129" s="6" t="s">
         <v>1908</v>
       </c>
-      <c r="D129" s="56" t="s">
-        <v>4684</v>
+      <c r="D129" s="55" t="s">
+        <v>4681</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -17390,8 +17401,8 @@
       <c r="C130" s="6" t="s">
         <v>1909</v>
       </c>
-      <c r="D130" s="56" t="s">
-        <v>4857</v>
+      <c r="D130" s="55" t="s">
+        <v>4854</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -17399,7 +17410,7 @@
         <v>239</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>4809</v>
+        <v>4806</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>1956</v>
@@ -17418,8 +17429,8 @@
       <c r="C132" s="6" t="s">
         <v>1910</v>
       </c>
-      <c r="D132" s="46" t="s">
-        <v>4524</v>
+      <c r="D132" s="45" t="s">
+        <v>4521</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -17432,8 +17443,8 @@
       <c r="C133" s="7" t="s">
         <v>3402</v>
       </c>
-      <c r="D133" s="46" t="s">
-        <v>4655</v>
+      <c r="D133" s="45" t="s">
+        <v>4652</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -17472,8 +17483,8 @@
       <c r="C136" s="6" t="s">
         <v>2020</v>
       </c>
-      <c r="D136" s="56" t="s">
-        <v>4732</v>
+      <c r="D136" s="55" t="s">
+        <v>4729</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -17493,10 +17504,10 @@
         <v>252</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>4555</v>
+        <v>4552</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>4556</v>
+        <v>4553</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -17536,8 +17547,8 @@
       <c r="C141" s="6" t="s">
         <v>1913</v>
       </c>
-      <c r="D141" s="42" t="s">
-        <v>4428</v>
+      <c r="D141" s="41" t="s">
+        <v>4425</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -17648,8 +17659,8 @@
       <c r="C149" s="6" t="s">
         <v>2009</v>
       </c>
-      <c r="D149" s="56" t="s">
-        <v>4701</v>
+      <c r="D149" s="55" t="s">
+        <v>4698</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -17662,8 +17673,8 @@
       <c r="C150" s="6" t="s">
         <v>2010</v>
       </c>
-      <c r="D150" s="46" t="s">
-        <v>4557</v>
+      <c r="D150" s="45" t="s">
+        <v>4554</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -17690,8 +17701,8 @@
       <c r="C152" s="6" t="s">
         <v>2012</v>
       </c>
-      <c r="D152" s="56" t="s">
-        <v>4761</v>
+      <c r="D152" s="55" t="s">
+        <v>4758</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -17704,8 +17715,8 @@
       <c r="C153" s="6" t="s">
         <v>2013</v>
       </c>
-      <c r="D153" s="46" t="s">
-        <v>4531</v>
+      <c r="D153" s="45" t="s">
+        <v>4528</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -17718,8 +17729,8 @@
       <c r="C154" s="6" t="s">
         <v>2014</v>
       </c>
-      <c r="D154" s="42" t="s">
-        <v>4490</v>
+      <c r="D154" s="41" t="s">
+        <v>4487</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -17797,13 +17808,13 @@
         <v>295</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>4877</v>
+        <v>4874</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>4876</v>
+        <v>4873</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>4875</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -17900,8 +17911,8 @@
       <c r="C167" s="6" t="s">
         <v>2027</v>
       </c>
-      <c r="D167" s="56" t="s">
-        <v>4679</v>
+      <c r="D167" s="55" t="s">
+        <v>4676</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -17914,8 +17925,8 @@
       <c r="C168" s="6" t="s">
         <v>2028</v>
       </c>
-      <c r="D168" s="46" t="s">
-        <v>4541</v>
+      <c r="D168" s="45" t="s">
+        <v>4538</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -17980,8 +17991,8 @@
       <c r="C173" s="6" t="s">
         <v>1902</v>
       </c>
-      <c r="D173" s="56" t="s">
-        <v>4912</v>
+      <c r="D173" s="55" t="s">
+        <v>4909</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -17994,8 +18005,8 @@
       <c r="C174" s="6" t="s">
         <v>1993</v>
       </c>
-      <c r="D174" s="56" t="s">
-        <v>4708</v>
+      <c r="D174" s="55" t="s">
+        <v>4705</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -18008,8 +18019,8 @@
       <c r="C175" s="6" t="s">
         <v>1994</v>
       </c>
-      <c r="D175" s="42" t="s">
-        <v>4437</v>
+      <c r="D175" s="41" t="s">
+        <v>4434</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -18022,8 +18033,8 @@
       <c r="C176" s="6" t="s">
         <v>1995</v>
       </c>
-      <c r="D176" s="42" t="s">
-        <v>4483</v>
+      <c r="D176" s="41" t="s">
+        <v>4480</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -18036,8 +18047,8 @@
       <c r="C177" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="D177" s="42" t="s">
-        <v>4482</v>
+      <c r="D177" s="41" t="s">
+        <v>4479</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -18050,8 +18061,8 @@
       <c r="C178" s="6" t="s">
         <v>1997</v>
       </c>
-      <c r="D178" s="56" t="s">
-        <v>4839</v>
+      <c r="D178" s="55" t="s">
+        <v>4836</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -18121,7 +18132,7 @@
         <v>2041</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>4502</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -18129,13 +18140,13 @@
         <v>340</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>4454</v>
+        <v>4451</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>4456</v>
+        <v>4453</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>4455</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -18143,10 +18154,10 @@
         <v>341</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>4446</v>
+        <v>4443</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>4447</v>
+        <v>4444</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>3362</v>
@@ -18185,10 +18196,10 @@
         <v>346</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>4808</v>
+        <v>4805</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>4807</v>
+        <v>4804</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>3365</v>
@@ -18272,8 +18283,8 @@
       <c r="C194" s="6" t="s">
         <v>1863</v>
       </c>
-      <c r="D194" s="56" t="s">
-        <v>4770</v>
+      <c r="D194" s="55" t="s">
+        <v>4767</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -18286,8 +18297,8 @@
       <c r="C195" s="6" t="s">
         <v>1987</v>
       </c>
-      <c r="D195" s="56" t="s">
-        <v>4767</v>
+      <c r="D195" s="55" t="s">
+        <v>4764</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -18342,8 +18353,8 @@
       <c r="C199" s="6" t="s">
         <v>1991</v>
       </c>
-      <c r="D199" s="42" t="s">
-        <v>4494</v>
+      <c r="D199" s="41" t="s">
+        <v>4491</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -18366,10 +18377,10 @@
         <v>4186</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>4231</v>
-      </c>
-      <c r="D201" s="49" t="s">
-        <v>4902</v>
+        <v>4230</v>
+      </c>
+      <c r="D201" s="48" t="s">
+        <v>4899</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -18380,7 +18391,7 @@
         <v>4187</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="D202" t="s">
         <v>3587</v>
@@ -18391,10 +18402,10 @@
         <v>373</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>4668</v>
+        <v>4665</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>4667</v>
+        <v>4664</v>
       </c>
       <c r="D203" t="s">
         <v>3588</v>
@@ -18405,13 +18416,13 @@
         <v>374</v>
       </c>
       <c r="B204" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>4346</v>
+      </c>
+      <c r="D204" t="s">
         <v>4345</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>4347</v>
-      </c>
-      <c r="D204" t="s">
-        <v>4346</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -18419,10 +18430,10 @@
         <v>375</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>4458</v>
+        <v>4455</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>4459</v>
+        <v>4456</v>
       </c>
       <c r="D205" t="s">
         <v>3589</v>
@@ -18433,10 +18444,10 @@
         <v>376</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>4507</v>
+        <v>4504</v>
       </c>
       <c r="D206" t="s">
         <v>3590</v>
@@ -18447,10 +18458,10 @@
         <v>377</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>4671</v>
+        <v>4668</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>4670</v>
+        <v>4667</v>
       </c>
       <c r="D207" t="s">
         <v>3591</v>
@@ -18461,10 +18472,10 @@
         <v>378</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>4873</v>
+        <v>4870</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>4872</v>
+        <v>4869</v>
       </c>
       <c r="D208" t="s">
         <v>3592</v>
@@ -18475,10 +18486,10 @@
         <v>379</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>4649</v>
+        <v>4646</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>4648</v>
+        <v>4645</v>
       </c>
       <c r="D209" t="s">
         <v>3593</v>
@@ -18489,10 +18500,10 @@
         <v>380</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>4579</v>
+        <v>4576</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>4578</v>
+        <v>4575</v>
       </c>
       <c r="D210" t="s">
         <v>3594</v>
@@ -18503,13 +18514,13 @@
         <v>381</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>4719</v>
-      </c>
-      <c r="D211" s="56" t="s">
-        <v>4718</v>
+        <v>4716</v>
+      </c>
+      <c r="D211" s="55" t="s">
+        <v>4715</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -18517,13 +18528,13 @@
         <v>382</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>4658</v>
+        <v>4655</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>4657</v>
-      </c>
-      <c r="D212" s="46" t="s">
-        <v>4656</v>
+        <v>4654</v>
+      </c>
+      <c r="D212" s="45" t="s">
+        <v>4653</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -18531,10 +18542,10 @@
         <v>383</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>4448</v>
+        <v>4445</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>4449</v>
+        <v>4446</v>
       </c>
       <c r="D213" t="s">
         <v>3595</v>
@@ -18545,10 +18556,10 @@
         <v>384</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>4486</v>
+        <v>4483</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
       <c r="D214" t="s">
         <v>3596</v>
@@ -18559,10 +18570,10 @@
         <v>385</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>4500</v>
+        <v>4497</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
       <c r="D215" t="s">
         <v>3597</v>
@@ -18573,10 +18584,10 @@
         <v>386</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>4515</v>
+        <v>4512</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>4516</v>
+        <v>4513</v>
       </c>
       <c r="D216" t="s">
         <v>3598</v>
@@ -18592,8 +18603,8 @@
       <c r="C217" s="7" t="s">
         <v>3377</v>
       </c>
-      <c r="D217" s="57" t="s">
-        <v>4762</v>
+      <c r="D217" s="56" t="s">
+        <v>4759</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -18606,8 +18617,8 @@
       <c r="C218" s="7" t="s">
         <v>2709</v>
       </c>
-      <c r="D218" s="57" t="s">
-        <v>4800</v>
+      <c r="D218" s="56" t="s">
+        <v>4797</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -18620,8 +18631,8 @@
       <c r="C219" s="7" t="s">
         <v>3401</v>
       </c>
-      <c r="D219" s="57" t="s">
-        <v>4869</v>
+      <c r="D219" s="56" t="s">
+        <v>4866</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -18629,10 +18640,10 @@
         <v>392</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>4265</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>4266</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>4267</v>
       </c>
       <c r="D220" t="s">
         <v>3599</v>
@@ -18643,13 +18654,13 @@
         <v>393</v>
       </c>
       <c r="B221" s="6" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>4268</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="D221" t="s">
         <v>4269</v>
-      </c>
-      <c r="D221" t="s">
-        <v>4270</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -18676,8 +18687,8 @@
       <c r="C223" s="6" t="s">
         <v>2099</v>
       </c>
-      <c r="D223" s="42" t="s">
-        <v>4508</v>
+      <c r="D223" s="41" t="s">
+        <v>4505</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -18690,8 +18701,8 @@
       <c r="C224" s="6" t="s">
         <v>2100</v>
       </c>
-      <c r="D224" s="46" t="s">
-        <v>4553</v>
+      <c r="D224" s="45" t="s">
+        <v>4550</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -18704,8 +18715,8 @@
       <c r="C225" s="6" t="s">
         <v>2101</v>
       </c>
-      <c r="D225" s="56" t="s">
-        <v>4846</v>
+      <c r="D225" s="55" t="s">
+        <v>4843</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -18718,8 +18729,8 @@
       <c r="C226" s="7" t="s">
         <v>3400</v>
       </c>
-      <c r="D226" s="48" t="s">
-        <v>4664</v>
+      <c r="D226" s="47" t="s">
+        <v>4661</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -18730,10 +18741,10 @@
         <v>4188</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>4233</v>
-      </c>
-      <c r="D227" s="49" t="s">
-        <v>4908</v>
+        <v>4232</v>
+      </c>
+      <c r="D227" s="48" t="s">
+        <v>4905</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -18741,10 +18752,10 @@
         <v>405</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>4861</v>
+        <v>4858</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>4860</v>
+        <v>4857</v>
       </c>
       <c r="D228"/>
     </row>
@@ -18759,7 +18770,7 @@
         <v>2104</v>
       </c>
       <c r="D229" t="s">
-        <v>4764</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -18772,8 +18783,8 @@
       <c r="C230" s="6" t="s">
         <v>2102</v>
       </c>
-      <c r="D230" s="56" t="s">
-        <v>4874</v>
+      <c r="D230" s="55" t="s">
+        <v>4871</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -18786,8 +18797,8 @@
       <c r="C231" s="6" t="s">
         <v>2103</v>
       </c>
-      <c r="D231" s="46" t="s">
-        <v>4646</v>
+      <c r="D231" s="45" t="s">
+        <v>4643</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -18800,8 +18811,8 @@
       <c r="C232" s="6" t="s">
         <v>2105</v>
       </c>
-      <c r="D232" s="56" t="s">
-        <v>4754</v>
+      <c r="D232" s="55" t="s">
+        <v>4751</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -18814,8 +18825,8 @@
       <c r="C233" s="6" t="s">
         <v>2106</v>
       </c>
-      <c r="D233" s="56" t="s">
-        <v>4748</v>
+      <c r="D233" s="55" t="s">
+        <v>4745</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -18828,8 +18839,8 @@
       <c r="C234" s="6" t="s">
         <v>2107</v>
       </c>
-      <c r="D234" s="56" t="s">
-        <v>4858</v>
+      <c r="D234" s="55" t="s">
+        <v>4855</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -18842,8 +18853,8 @@
       <c r="C235" s="6" t="s">
         <v>2108</v>
       </c>
-      <c r="D235" s="42" t="s">
-        <v>4457</v>
+      <c r="D235" s="41" t="s">
+        <v>4454</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -18856,8 +18867,8 @@
       <c r="C236" s="6" t="s">
         <v>2109</v>
       </c>
-      <c r="D236" s="46" t="s">
-        <v>4564</v>
+      <c r="D236" s="45" t="s">
+        <v>4561</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -18870,8 +18881,8 @@
       <c r="C237" s="6" t="s">
         <v>2110</v>
       </c>
-      <c r="D237" s="46" t="s">
-        <v>4575</v>
+      <c r="D237" s="45" t="s">
+        <v>4572</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -18884,8 +18895,8 @@
       <c r="C238" s="6" t="s">
         <v>2111</v>
       </c>
-      <c r="D238" s="46" t="s">
-        <v>4574</v>
+      <c r="D238" s="45" t="s">
+        <v>4571</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -18898,8 +18909,8 @@
       <c r="C239" s="6" t="s">
         <v>2112</v>
       </c>
-      <c r="D239" s="56" t="s">
-        <v>4707</v>
+      <c r="D239" s="55" t="s">
+        <v>4704</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -18912,8 +18923,8 @@
       <c r="C240" s="6" t="s">
         <v>2113</v>
       </c>
-      <c r="D240" s="56" t="s">
-        <v>4757</v>
+      <c r="D240" s="55" t="s">
+        <v>4754</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -18926,8 +18937,8 @@
       <c r="C241" s="6" t="s">
         <v>2114</v>
       </c>
-      <c r="D241" s="46" t="s">
-        <v>4532</v>
+      <c r="D241" s="45" t="s">
+        <v>4529</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -18940,8 +18951,8 @@
       <c r="C242" s="6" t="s">
         <v>2115</v>
       </c>
-      <c r="D242" s="42" t="s">
-        <v>4444</v>
+      <c r="D242" s="41" t="s">
+        <v>4441</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -19024,8 +19035,8 @@
       <c r="C248" s="7" t="s">
         <v>3399</v>
       </c>
-      <c r="D248" s="48" t="s">
-        <v>4590</v>
+      <c r="D248" s="47" t="s">
+        <v>4587</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -19052,8 +19063,8 @@
       <c r="C250" s="7" t="s">
         <v>2710</v>
       </c>
-      <c r="D250" s="57" t="s">
-        <v>4773</v>
+      <c r="D250" s="56" t="s">
+        <v>4770</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -19115,10 +19126,10 @@
         <v>458</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>4429</v>
+        <v>4426</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>4430</v>
+        <v>4427</v>
       </c>
       <c r="D255" s="2"/>
     </row>
@@ -19127,10 +19138,10 @@
         <v>459</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>4534</v>
+        <v>4531</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>4535</v>
+        <v>4532</v>
       </c>
       <c r="D256" s="2"/>
     </row>
@@ -19139,10 +19150,10 @@
         <v>460</v>
       </c>
       <c r="B257" s="30" t="s">
-        <v>4811</v>
+        <v>4808</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>4810</v>
+        <v>4807</v>
       </c>
       <c r="D257" t="s">
         <v>3610</v>
@@ -19158,8 +19169,8 @@
       <c r="C258" s="6" t="s">
         <v>2043</v>
       </c>
-      <c r="D258" s="56" t="s">
-        <v>4683</v>
+      <c r="D258" s="55" t="s">
+        <v>4680</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -19172,8 +19183,8 @@
       <c r="C259" s="6" t="s">
         <v>2042</v>
       </c>
-      <c r="D259" s="46" t="s">
-        <v>4577</v>
+      <c r="D259" s="45" t="s">
+        <v>4574</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -19209,7 +19220,7 @@
         <v>469</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>1868</v>
@@ -19263,10 +19274,10 @@
         <v>476</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>4496</v>
+        <v>4493</v>
       </c>
       <c r="D266" s="2"/>
     </row>
@@ -19280,8 +19291,8 @@
       <c r="C267" s="6" t="s">
         <v>1872</v>
       </c>
-      <c r="D267" s="56" t="s">
-        <v>4888</v>
+      <c r="D267" s="55" t="s">
+        <v>4885</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -19294,8 +19305,8 @@
       <c r="C268" s="6" t="s">
         <v>2121</v>
       </c>
-      <c r="D268" s="46" t="s">
-        <v>4529</v>
+      <c r="D268" s="45" t="s">
+        <v>4526</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -19308,8 +19319,8 @@
       <c r="C269" s="6" t="s">
         <v>2122</v>
       </c>
-      <c r="D269" s="42" t="s">
-        <v>4442</v>
+      <c r="D269" s="41" t="s">
+        <v>4439</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -19322,8 +19333,8 @@
       <c r="C270" s="6" t="s">
         <v>1873</v>
       </c>
-      <c r="D270" s="56" t="s">
-        <v>4738</v>
+      <c r="D270" s="55" t="s">
+        <v>4735</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -19336,8 +19347,8 @@
       <c r="C271" s="6" t="s">
         <v>2123</v>
       </c>
-      <c r="D271" s="56" t="s">
-        <v>4917</v>
+      <c r="D271" s="55" t="s">
+        <v>4914</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -19364,8 +19375,8 @@
       <c r="C273" s="6" t="s">
         <v>2125</v>
       </c>
-      <c r="D273" s="56" t="s">
-        <v>4697</v>
+      <c r="D273" s="55" t="s">
+        <v>4694</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -19392,8 +19403,8 @@
       <c r="C275" s="6" t="s">
         <v>2127</v>
       </c>
-      <c r="D275" s="56" t="s">
-        <v>4899</v>
+      <c r="D275" s="55" t="s">
+        <v>4896</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -19432,8 +19443,8 @@
       <c r="C278" s="6" t="s">
         <v>1875</v>
       </c>
-      <c r="D278" s="42" t="s">
-        <v>4467</v>
+      <c r="D278" s="41" t="s">
+        <v>4464</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -19446,8 +19457,8 @@
       <c r="C279" s="6" t="s">
         <v>2180</v>
       </c>
-      <c r="D279" s="56" t="s">
-        <v>4730</v>
+      <c r="D279" s="55" t="s">
+        <v>4727</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -19460,8 +19471,8 @@
       <c r="C280" s="6" t="s">
         <v>2181</v>
       </c>
-      <c r="D280" s="46" t="s">
-        <v>4526</v>
+      <c r="D280" s="45" t="s">
+        <v>4523</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -19474,8 +19485,8 @@
       <c r="C281" s="6" t="s">
         <v>2182</v>
       </c>
-      <c r="D281" s="56" t="s">
-        <v>4826</v>
+      <c r="D281" s="55" t="s">
+        <v>4823</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -19488,8 +19499,8 @@
       <c r="C282" s="6" t="s">
         <v>2183</v>
       </c>
-      <c r="D282" s="42" t="s">
-        <v>4452</v>
+      <c r="D282" s="41" t="s">
+        <v>4449</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -19502,8 +19513,8 @@
       <c r="C283" s="6" t="s">
         <v>2184</v>
       </c>
-      <c r="D283" s="46" t="s">
-        <v>4621</v>
+      <c r="D283" s="45" t="s">
+        <v>4618</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -19516,8 +19527,8 @@
       <c r="C284" s="6" t="s">
         <v>2185</v>
       </c>
-      <c r="D284" s="46" t="s">
-        <v>4559</v>
+      <c r="D284" s="45" t="s">
+        <v>4556</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -19572,8 +19583,8 @@
       <c r="C288" s="6" t="s">
         <v>1878</v>
       </c>
-      <c r="D288" s="46" t="s">
-        <v>4676</v>
+      <c r="D288" s="45" t="s">
+        <v>4673</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -19586,8 +19597,8 @@
       <c r="C289" s="6" t="s">
         <v>2051</v>
       </c>
-      <c r="D289" s="56" t="s">
-        <v>4865</v>
+      <c r="D289" s="55" t="s">
+        <v>4862</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -19600,8 +19611,8 @@
       <c r="C290" s="6" t="s">
         <v>2050</v>
       </c>
-      <c r="D290" s="56" t="s">
-        <v>4715</v>
+      <c r="D290" s="55" t="s">
+        <v>4712</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -19614,8 +19625,8 @@
       <c r="C291" s="6" t="s">
         <v>2049</v>
       </c>
-      <c r="D291" s="42" t="s">
-        <v>4445</v>
+      <c r="D291" s="41" t="s">
+        <v>4442</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -19642,8 +19653,8 @@
       <c r="C293" s="7" t="s">
         <v>3398</v>
       </c>
-      <c r="D293" s="57" t="s">
-        <v>4590</v>
+      <c r="D293" s="56" t="s">
+        <v>4587</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -19656,8 +19667,8 @@
       <c r="C294" s="6" t="s">
         <v>2149</v>
       </c>
-      <c r="D294" s="42" t="s">
-        <v>4478</v>
+      <c r="D294" s="41" t="s">
+        <v>4475</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -19749,10 +19760,10 @@
         <v>545</v>
       </c>
       <c r="B301" s="30" t="s">
-        <v>4882</v>
+        <v>4879</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>4881</v>
+        <v>4878</v>
       </c>
       <c r="D301" t="s">
         <v>3628</v>
@@ -19768,8 +19779,8 @@
       <c r="C302" s="6" t="s">
         <v>2151</v>
       </c>
-      <c r="D302" s="49" t="s">
-        <v>4543</v>
+      <c r="D302" s="48" t="s">
+        <v>4540</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -19783,7 +19794,7 @@
         <v>2152</v>
       </c>
       <c r="D303" t="s">
-        <v>4756</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -19824,8 +19835,8 @@
       <c r="C306" s="6" t="s">
         <v>3188</v>
       </c>
-      <c r="D306" s="56" t="s">
-        <v>4688</v>
+      <c r="D306" s="55" t="s">
+        <v>4685</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -19839,7 +19850,7 @@
         <v>3137</v>
       </c>
       <c r="D307" t="s">
-        <v>4423</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -19852,8 +19863,8 @@
       <c r="C308" s="6" t="s">
         <v>2133</v>
       </c>
-      <c r="D308" s="56" t="s">
-        <v>4792</v>
+      <c r="D308" s="55" t="s">
+        <v>4789</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -19880,8 +19891,8 @@
       <c r="C310" s="6" t="s">
         <v>2135</v>
       </c>
-      <c r="D310" s="46" t="s">
-        <v>4537</v>
+      <c r="D310" s="45" t="s">
+        <v>4534</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -19904,7 +19915,7 @@
         <v>567</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="D312" t="s">
         <v>3632</v>
@@ -19918,7 +19929,7 @@
         <v>569</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="D313" t="s">
         <v>3633</v>
@@ -19932,7 +19943,7 @@
         <v>571</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="D314" t="s">
         <v>3634</v>
@@ -19946,7 +19957,7 @@
         <v>573</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="D315" t="s">
         <v>3635</v>
@@ -19960,7 +19971,7 @@
         <v>575</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="D316" t="s">
         <v>3636</v>
@@ -19974,7 +19985,7 @@
         <v>577</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="D317" t="s">
         <v>3637</v>
@@ -19988,7 +19999,7 @@
         <v>579</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="D318" t="s">
         <v>3638</v>
@@ -20002,7 +20013,7 @@
         <v>581</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="D319" t="s">
         <v>3639</v>
@@ -20016,7 +20027,7 @@
         <v>583</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="D320" t="s">
         <v>3640</v>
@@ -20044,8 +20055,8 @@
       <c r="C322" s="6" t="s">
         <v>1882</v>
       </c>
-      <c r="D322" s="46" t="s">
-        <v>4570</v>
+      <c r="D322" s="45" t="s">
+        <v>4567</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -20073,7 +20084,7 @@
         <v>2153</v>
       </c>
       <c r="D324" t="s">
-        <v>4611</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -20151,13 +20162,13 @@
         <v>601</v>
       </c>
       <c r="B330" s="30" t="s">
-        <v>4606</v>
+        <v>4603</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>4607</v>
+        <v>4604</v>
       </c>
       <c r="D330" t="s">
-        <v>4605</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -20185,7 +20196,7 @@
         <v>1884</v>
       </c>
       <c r="D332" t="s">
-        <v>4436</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -20198,8 +20209,8 @@
       <c r="C333" s="6" t="s">
         <v>2053</v>
       </c>
-      <c r="D333" s="46" t="s">
-        <v>4599</v>
+      <c r="D333" s="45" t="s">
+        <v>4596</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -20227,7 +20238,7 @@
         <v>2138</v>
       </c>
       <c r="D335" t="s">
-        <v>4790</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -20235,13 +20246,13 @@
         <v>612</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>4752</v>
+        <v>4749</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>4753</v>
+        <v>4750</v>
       </c>
       <c r="D336" t="s">
-        <v>4751</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -20249,10 +20260,10 @@
         <v>613</v>
       </c>
       <c r="B337" s="30" t="s">
-        <v>4726</v>
+        <v>4723</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>4725</v>
+        <v>4722</v>
       </c>
       <c r="D337" t="s">
         <v>3648</v>
@@ -20263,10 +20274,10 @@
         <v>614</v>
       </c>
       <c r="B338" s="30" t="s">
-        <v>4626</v>
+        <v>4623</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>4625</v>
+        <v>4622</v>
       </c>
       <c r="D338" t="s">
         <v>3649</v>
@@ -20296,8 +20307,8 @@
       <c r="C340" s="6" t="s">
         <v>2055</v>
       </c>
-      <c r="D340" s="56" t="s">
-        <v>4760</v>
+      <c r="D340" s="55" t="s">
+        <v>4757</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -20305,13 +20316,13 @@
         <v>619</v>
       </c>
       <c r="B341" s="30" t="s">
-        <v>4815</v>
+        <v>4812</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>4814</v>
-      </c>
-      <c r="D341" s="56" t="s">
-        <v>4813</v>
+        <v>4811</v>
+      </c>
+      <c r="D341" s="55" t="s">
+        <v>4810</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -20324,8 +20335,8 @@
       <c r="C342" s="6" t="s">
         <v>2186</v>
       </c>
-      <c r="D342" s="42" t="s">
-        <v>4453</v>
+      <c r="D342" s="41" t="s">
+        <v>4450</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -20338,8 +20349,8 @@
       <c r="C343" s="6" t="s">
         <v>2187</v>
       </c>
-      <c r="D343" s="46" t="s">
-        <v>4617</v>
+      <c r="D343" s="45" t="s">
+        <v>4614</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -20366,8 +20377,8 @@
       <c r="C345" s="6" t="s">
         <v>2189</v>
       </c>
-      <c r="D345" s="56" t="s">
-        <v>4803</v>
+      <c r="D345" s="55" t="s">
+        <v>4800</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -20380,8 +20391,8 @@
       <c r="C346" s="6" t="s">
         <v>2190</v>
       </c>
-      <c r="D346" s="46" t="s">
-        <v>4571</v>
+      <c r="D346" s="45" t="s">
+        <v>4568</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -20394,8 +20405,8 @@
       <c r="C347" s="6" t="s">
         <v>2139</v>
       </c>
-      <c r="D347" s="56" t="s">
-        <v>4686</v>
+      <c r="D347" s="55" t="s">
+        <v>4683</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -20408,8 +20419,8 @@
       <c r="C348" s="6" t="s">
         <v>2140</v>
       </c>
-      <c r="D348" s="56" t="s">
-        <v>4864</v>
+      <c r="D348" s="55" t="s">
+        <v>4861</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -20422,8 +20433,8 @@
       <c r="C349" s="6" t="s">
         <v>2191</v>
       </c>
-      <c r="D349" s="56" t="s">
-        <v>4737</v>
+      <c r="D349" s="55" t="s">
+        <v>4734</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -20436,8 +20447,8 @@
       <c r="C350" s="6" t="s">
         <v>2192</v>
       </c>
-      <c r="D350" s="42" t="s">
-        <v>4434</v>
+      <c r="D350" s="41" t="s">
+        <v>4431</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -20465,7 +20476,7 @@
         <v>2194</v>
       </c>
       <c r="D352" t="s">
-        <v>4477</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -20546,8 +20557,8 @@
       <c r="C358" s="6" t="s">
         <v>2196</v>
       </c>
-      <c r="D358" s="56" t="s">
-        <v>4825</v>
+      <c r="D358" s="55" t="s">
+        <v>4822</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -20560,8 +20571,8 @@
       <c r="C359" s="6" t="s">
         <v>2197</v>
       </c>
-      <c r="D359" s="46" t="s">
-        <v>4520</v>
+      <c r="D359" s="45" t="s">
+        <v>4517</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -20569,10 +20580,10 @@
         <v>656</v>
       </c>
       <c r="B360" s="30" t="s">
-        <v>4884</v>
+        <v>4881</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>4885</v>
+        <v>4882</v>
       </c>
       <c r="D360" t="s">
         <v>3657</v>
@@ -20597,10 +20608,10 @@
         <v>659</v>
       </c>
       <c r="B362" s="30" t="s">
-        <v>4678</v>
+        <v>4675</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>4677</v>
+        <v>4674</v>
       </c>
       <c r="D362" s="2"/>
     </row>
@@ -20671,7 +20682,7 @@
         <v>2144</v>
       </c>
       <c r="D367" t="s">
-        <v>4722</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -20752,8 +20763,8 @@
       <c r="C373" s="6" t="s">
         <v>2161</v>
       </c>
-      <c r="D373" s="56" t="s">
-        <v>4859</v>
+      <c r="D373" s="55" t="s">
+        <v>4856</v>
       </c>
     </row>
     <row r="374" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -20766,8 +20777,8 @@
       <c r="C374" s="7" t="s">
         <v>2711</v>
       </c>
-      <c r="D374" s="57" t="s">
-        <v>4838</v>
+      <c r="D374" s="56" t="s">
+        <v>4835</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -20820,8 +20831,8 @@
       <c r="C378" s="6" t="s">
         <v>2158</v>
       </c>
-      <c r="D378" s="56" t="s">
-        <v>4895</v>
+      <c r="D378" s="55" t="s">
+        <v>4892</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -20834,8 +20845,8 @@
       <c r="C379" s="6" t="s">
         <v>2146</v>
       </c>
-      <c r="D379" s="56" t="s">
-        <v>4823</v>
+      <c r="D379" s="55" t="s">
+        <v>4820</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -20843,10 +20854,10 @@
         <v>692</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>4461</v>
+        <v>4458</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>4462</v>
+        <v>4459</v>
       </c>
       <c r="D380" t="s">
         <v>3669</v>
@@ -20942,8 +20953,8 @@
       <c r="C387" s="6" t="s">
         <v>2221</v>
       </c>
-      <c r="D387" s="42" t="s">
-        <v>4509</v>
+      <c r="D387" s="41" t="s">
+        <v>4506</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -20963,10 +20974,10 @@
         <v>707</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>4612</v>
+        <v>4609</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>4613</v>
+        <v>4610</v>
       </c>
       <c r="D389" s="2"/>
     </row>
@@ -20992,8 +21003,8 @@
       <c r="C391" s="6" t="s">
         <v>2222</v>
       </c>
-      <c r="D391" s="56" t="s">
-        <v>4758</v>
+      <c r="D391" s="55" t="s">
+        <v>4755</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -21006,8 +21017,8 @@
       <c r="C392" s="6" t="s">
         <v>2224</v>
       </c>
-      <c r="D392" s="56" t="s">
-        <v>4723</v>
+      <c r="D392" s="55" t="s">
+        <v>4720</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -21020,8 +21031,8 @@
       <c r="C393" s="6" t="s">
         <v>2223</v>
       </c>
-      <c r="D393" s="42" t="s">
-        <v>4432</v>
+      <c r="D393" s="41" t="s">
+        <v>4429</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -21049,7 +21060,7 @@
         <v>2203</v>
       </c>
       <c r="D395" t="s">
-        <v>4653</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -21099,10 +21110,10 @@
         <v>726</v>
       </c>
       <c r="B399" s="30" t="s">
-        <v>4906</v>
+        <v>4903</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>4905</v>
+        <v>4902</v>
       </c>
       <c r="D399" s="2"/>
     </row>
@@ -21123,10 +21134,10 @@
         <v>729</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>4591</v>
+        <v>4588</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>4592</v>
+        <v>4589</v>
       </c>
       <c r="D401" t="s">
         <v>3678</v>
@@ -21137,10 +21148,10 @@
         <v>730</v>
       </c>
       <c r="B402" s="30" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="D402" t="s">
         <v>3679</v>
@@ -21157,7 +21168,7 @@
         <v>2061</v>
       </c>
       <c r="D403" t="s">
-        <v>4734</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -21221,13 +21232,13 @@
         <v>741</v>
       </c>
       <c r="B408" s="30" t="s">
-        <v>4561</v>
+        <v>4558</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>4560</v>
+        <v>4557</v>
       </c>
       <c r="D408" t="s">
-        <v>4562</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -21241,7 +21252,7 @@
         <v>2204</v>
       </c>
       <c r="D409" t="s">
-        <v>4479</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -21323,7 +21334,7 @@
         <v>2064</v>
       </c>
       <c r="D415" t="s">
-        <v>4476</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -21359,10 +21370,10 @@
         <v>760</v>
       </c>
       <c r="B418" s="30" t="s">
-        <v>4619</v>
+        <v>4616</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>4618</v>
+        <v>4615</v>
       </c>
       <c r="D418" s="2"/>
     </row>
@@ -21388,8 +21399,8 @@
       <c r="C420" s="6" t="s">
         <v>2163</v>
       </c>
-      <c r="D420" s="46" t="s">
-        <v>4558</v>
+      <c r="D420" s="45" t="s">
+        <v>4555</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -21402,8 +21413,8 @@
       <c r="C421" s="6" t="s">
         <v>2164</v>
       </c>
-      <c r="D421" s="46" t="s">
-        <v>4654</v>
+      <c r="D421" s="45" t="s">
+        <v>4651</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -21430,8 +21441,8 @@
       <c r="C423" s="6" t="s">
         <v>2166</v>
       </c>
-      <c r="D423" s="56" t="s">
-        <v>4824</v>
+      <c r="D423" s="55" t="s">
+        <v>4821</v>
       </c>
     </row>
     <row r="424" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -21444,8 +21455,8 @@
       <c r="C424" s="7" t="s">
         <v>3397</v>
       </c>
-      <c r="D424" s="43" t="s">
-        <v>4441</v>
+      <c r="D424" s="42" t="s">
+        <v>4438</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -21458,8 +21469,8 @@
       <c r="C425" s="6" t="s">
         <v>2167</v>
       </c>
-      <c r="D425" s="56" t="s">
-        <v>4849</v>
+      <c r="D425" s="55" t="s">
+        <v>4846</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -21500,8 +21511,8 @@
       <c r="C428" s="6" t="s">
         <v>2239</v>
       </c>
-      <c r="D428" s="49" t="s">
-        <v>4542</v>
+      <c r="D428" s="48" t="s">
+        <v>4539</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -21566,7 +21577,7 @@
         <v>789</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="D433" t="s">
         <v>3696</v>
@@ -21597,7 +21608,7 @@
         <v>2210</v>
       </c>
       <c r="D435" t="s">
-        <v>4840</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -21605,10 +21616,10 @@
         <v>794</v>
       </c>
       <c r="B436" s="30" t="s">
-        <v>4796</v>
+        <v>4793</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>4795</v>
+        <v>4792</v>
       </c>
       <c r="D436" t="s">
         <v>3698</v>
@@ -21639,7 +21650,7 @@
         <v>2399</v>
       </c>
       <c r="D438" t="s">
-        <v>4497</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -21664,8 +21675,8 @@
       <c r="C440" s="6" t="s">
         <v>2401</v>
       </c>
-      <c r="D440" s="46" t="s">
-        <v>4521</v>
+      <c r="D440" s="45" t="s">
+        <v>4518</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -21692,8 +21703,8 @@
       <c r="C442" s="6" t="s">
         <v>2208</v>
       </c>
-      <c r="D442" s="49" t="s">
-        <v>4596</v>
+      <c r="D442" s="48" t="s">
+        <v>4593</v>
       </c>
     </row>
     <row r="443" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -21718,8 +21729,8 @@
       <c r="C444" s="7" t="s">
         <v>2376</v>
       </c>
-      <c r="D444" s="57" t="s">
-        <v>4693</v>
+      <c r="D444" s="56" t="s">
+        <v>4690</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -21732,8 +21743,8 @@
       <c r="C445" s="6" t="s">
         <v>2067</v>
       </c>
-      <c r="D445" s="46" t="s">
-        <v>4538</v>
+      <c r="D445" s="45" t="s">
+        <v>4535</v>
       </c>
     </row>
     <row r="446" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -21772,8 +21783,8 @@
       <c r="C448" s="6" t="s">
         <v>2379</v>
       </c>
-      <c r="D448" s="56" t="s">
-        <v>4883</v>
+      <c r="D448" s="55" t="s">
+        <v>4880</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -21786,8 +21797,8 @@
       <c r="C449" s="6" t="s">
         <v>2068</v>
       </c>
-      <c r="D449" s="42" t="s">
-        <v>4512</v>
+      <c r="D449" s="41" t="s">
+        <v>4509</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -21800,8 +21811,8 @@
       <c r="C450" s="6" t="s">
         <v>2321</v>
       </c>
-      <c r="D450" s="46" t="s">
-        <v>4568</v>
+      <c r="D450" s="45" t="s">
+        <v>4565</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -21814,8 +21825,8 @@
       <c r="C451" s="6" t="s">
         <v>2322</v>
       </c>
-      <c r="D451" s="46" t="s">
-        <v>4527</v>
+      <c r="D451" s="45" t="s">
+        <v>4524</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -21846,7 +21857,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
-        <v>826</v>
+        <v>4915</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>828</v>
@@ -21854,8 +21865,8 @@
       <c r="C454" s="6" t="s">
         <v>2171</v>
       </c>
-      <c r="D454" s="56" t="s">
-        <v>4845</v>
+      <c r="D454" s="55" t="s">
+        <v>4842</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -21882,8 +21893,8 @@
       <c r="C456" s="6" t="s">
         <v>2524</v>
       </c>
-      <c r="D456" s="46" t="s">
-        <v>4603</v>
+      <c r="D456" s="45" t="s">
+        <v>4600</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -21896,8 +21907,8 @@
       <c r="C457" s="6" t="s">
         <v>2170</v>
       </c>
-      <c r="D457" s="46" t="s">
-        <v>4608</v>
+      <c r="D457" s="45" t="s">
+        <v>4605</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -21924,8 +21935,8 @@
       <c r="C459" s="7" t="s">
         <v>2526</v>
       </c>
-      <c r="D459" s="43" t="s">
-        <v>4431</v>
+      <c r="D459" s="42" t="s">
+        <v>4428</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -21938,8 +21949,8 @@
       <c r="C460" s="6" t="s">
         <v>2209</v>
       </c>
-      <c r="D460" s="56" t="s">
-        <v>4801</v>
+      <c r="D460" s="55" t="s">
+        <v>4798</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -22032,8 +22043,8 @@
       <c r="C467" s="6" t="s">
         <v>2230</v>
       </c>
-      <c r="D467" s="56" t="s">
-        <v>4703</v>
+      <c r="D467" s="55" t="s">
+        <v>4700</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -22060,8 +22071,8 @@
       <c r="C469" s="6" t="s">
         <v>2584</v>
       </c>
-      <c r="D469" s="46" t="s">
-        <v>4584</v>
+      <c r="D469" s="45" t="s">
+        <v>4581</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -22074,8 +22085,8 @@
       <c r="C470" s="6" t="s">
         <v>2585</v>
       </c>
-      <c r="D470" s="46" t="s">
-        <v>4631</v>
+      <c r="D470" s="45" t="s">
+        <v>4628</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -22131,7 +22142,7 @@
         <v>2231</v>
       </c>
       <c r="D474" t="s">
-        <v>4692</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -22156,10 +22167,10 @@
         <v>871</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>4451</v>
+        <v>4448</v>
       </c>
       <c r="D476" t="s">
-        <v>4450</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -22181,10 +22192,10 @@
         <v>874</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>4709</v>
+        <v>4706</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>4710</v>
+        <v>4707</v>
       </c>
       <c r="D478" t="s">
         <v>3714</v>
@@ -22293,10 +22304,10 @@
         <v>889</v>
       </c>
       <c r="B486" s="30" t="s">
-        <v>4843</v>
+        <v>4840</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>4842</v>
+        <v>4839</v>
       </c>
       <c r="D486" s="2"/>
     </row>
@@ -22347,10 +22358,10 @@
         <v>897</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>4463</v>
+        <v>4460</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>4464</v>
+        <v>4461</v>
       </c>
       <c r="D490" t="s">
         <v>3725</v>
@@ -22378,8 +22389,8 @@
       <c r="C492" s="6" t="s">
         <v>2246</v>
       </c>
-      <c r="D492" s="46" t="s">
-        <v>4546</v>
+      <c r="D492" s="45" t="s">
+        <v>4543</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -22390,7 +22401,7 @@
         <v>902</v>
       </c>
       <c r="C493" s="6" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="D493" t="s">
         <v>3726</v>
@@ -22404,7 +22415,7 @@
         <v>904</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="D494" t="s">
         <v>3727</v>
@@ -22429,13 +22440,13 @@
         <v>907</v>
       </c>
       <c r="B496" s="30" t="s">
-        <v>4744</v>
+        <v>4741</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>4743</v>
+        <v>4740</v>
       </c>
       <c r="D496" t="s">
-        <v>4742</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -22449,7 +22460,7 @@
         <v>2649</v>
       </c>
       <c r="D497" t="s">
-        <v>4903</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -22457,10 +22468,10 @@
         <v>910</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>4480</v>
+        <v>4477</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>4481</v>
+        <v>4478</v>
       </c>
       <c r="D498" t="s">
         <v>3729</v>
@@ -22596,8 +22607,8 @@
       <c r="C508" s="6" t="s">
         <v>1893</v>
       </c>
-      <c r="D508" s="56" t="s">
-        <v>4821</v>
+      <c r="D508" s="55" t="s">
+        <v>4818</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -22610,8 +22621,8 @@
       <c r="C509" s="6" t="s">
         <v>2071</v>
       </c>
-      <c r="D509" s="56" t="s">
-        <v>4759</v>
+      <c r="D509" s="55" t="s">
+        <v>4756</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -22624,8 +22635,8 @@
       <c r="C510" s="6" t="s">
         <v>2072</v>
       </c>
-      <c r="D510" s="56" t="s">
-        <v>4880</v>
+      <c r="D510" s="55" t="s">
+        <v>4877</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -22638,8 +22649,8 @@
       <c r="C511" s="6" t="s">
         <v>2073</v>
       </c>
-      <c r="D511" s="56" t="s">
-        <v>4691</v>
+      <c r="D511" s="55" t="s">
+        <v>4688</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -22721,7 +22732,7 @@
         <v>3396</v>
       </c>
       <c r="D517" s="25" t="s">
-        <v>4433</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -22799,7 +22810,7 @@
         <v>1859</v>
       </c>
       <c r="D523" t="s">
-        <v>4443</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -22813,7 +22824,7 @@
         <v>2175</v>
       </c>
       <c r="D524" t="s">
-        <v>4782</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -22821,10 +22832,10 @@
         <v>956</v>
       </c>
       <c r="B525" s="30" t="s">
-        <v>4750</v>
+        <v>4747</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>4749</v>
+        <v>4746</v>
       </c>
       <c r="D525" t="s">
         <v>3742</v>
@@ -22835,13 +22846,13 @@
         <v>957</v>
       </c>
       <c r="B526" s="30" t="s">
-        <v>4696</v>
+        <v>4693</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>4695</v>
+        <v>4692</v>
       </c>
       <c r="D526" t="s">
-        <v>4694</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -22849,13 +22860,13 @@
         <v>958</v>
       </c>
       <c r="B527" s="30" t="s">
-        <v>4833</v>
+        <v>4830</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>4832</v>
+        <v>4829</v>
       </c>
       <c r="D527" t="s">
-        <v>4831</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -22863,10 +22874,10 @@
         <v>959</v>
       </c>
       <c r="B528" s="30" t="s">
-        <v>4834</v>
+        <v>4831</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>4835</v>
+        <v>4832</v>
       </c>
       <c r="D528" t="s">
         <v>3743</v>
@@ -22883,7 +22894,7 @@
         <v>2385</v>
       </c>
       <c r="D529" t="s">
-        <v>4485</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -22919,13 +22930,13 @@
         <v>966</v>
       </c>
       <c r="B532" s="30" t="s">
-        <v>4550</v>
+        <v>4547</v>
       </c>
       <c r="C532" s="6" t="s">
-        <v>4549</v>
+        <v>4546</v>
       </c>
       <c r="D532" t="s">
-        <v>4551</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -22933,7 +22944,7 @@
         <v>967</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>4569</v>
+        <v>4566</v>
       </c>
       <c r="C533" s="6" t="s">
         <v>3136</v>
@@ -22952,8 +22963,8 @@
       <c r="C534" s="7" t="s">
         <v>2724</v>
       </c>
-      <c r="D534" s="48" t="s">
-        <v>4595</v>
+      <c r="D534" s="47" t="s">
+        <v>4592</v>
       </c>
     </row>
     <row r="535" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -22966,8 +22977,8 @@
       <c r="C535" s="7" t="s">
         <v>2725</v>
       </c>
-      <c r="D535" s="57" t="s">
-        <v>4595</v>
+      <c r="D535" s="56" t="s">
+        <v>4592</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -22975,13 +22986,13 @@
         <v>970</v>
       </c>
       <c r="B536" s="30" t="s">
-        <v>4898</v>
+        <v>4895</v>
       </c>
       <c r="C536" s="6" t="s">
-        <v>4897</v>
-      </c>
-      <c r="D536" s="56" t="s">
-        <v>4896</v>
+        <v>4894</v>
+      </c>
+      <c r="D536" s="55" t="s">
+        <v>4893</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -22989,13 +23000,13 @@
         <v>971</v>
       </c>
       <c r="B537" s="30" t="s">
-        <v>4799</v>
+        <v>4796</v>
       </c>
       <c r="C537" s="6" t="s">
-        <v>4798</v>
-      </c>
-      <c r="D537" s="56" t="s">
-        <v>4797</v>
+        <v>4795</v>
+      </c>
+      <c r="D537" s="55" t="s">
+        <v>4794</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -23003,13 +23014,13 @@
         <v>972</v>
       </c>
       <c r="B538" s="30" t="s">
-        <v>4747</v>
+        <v>4744</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>4746</v>
-      </c>
-      <c r="D538" s="56" t="s">
-        <v>4745</v>
+        <v>4743</v>
+      </c>
+      <c r="D538" s="55" t="s">
+        <v>4742</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -23017,13 +23028,13 @@
         <v>973</v>
       </c>
       <c r="B539" s="30" t="s">
-        <v>4777</v>
+        <v>4774</v>
       </c>
       <c r="C539" s="30" t="s">
-        <v>4776</v>
-      </c>
-      <c r="D539" s="56" t="s">
-        <v>4775</v>
+        <v>4773</v>
+      </c>
+      <c r="D539" s="55" t="s">
+        <v>4772</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -23031,10 +23042,10 @@
         <v>974</v>
       </c>
       <c r="B540" s="30" t="s">
-        <v>4741</v>
+        <v>4738</v>
       </c>
       <c r="C540" s="6" t="s">
-        <v>4740</v>
+        <v>4737</v>
       </c>
       <c r="D540" t="s">
         <v>3747</v>
@@ -23045,10 +23056,10 @@
         <v>975</v>
       </c>
       <c r="B541" s="30" t="s">
-        <v>4634</v>
+        <v>4631</v>
       </c>
       <c r="C541" s="6" t="s">
-        <v>4633</v>
+        <v>4630</v>
       </c>
       <c r="D541" t="s">
         <v>3748</v>
@@ -23059,13 +23070,13 @@
         <v>976</v>
       </c>
       <c r="B542" s="30" t="s">
-        <v>4818</v>
+        <v>4815</v>
       </c>
       <c r="C542" s="6" t="s">
-        <v>4817</v>
+        <v>4814</v>
       </c>
       <c r="D542" t="s">
-        <v>4816</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="543" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -23079,7 +23090,7 @@
         <v>2726</v>
       </c>
       <c r="D543" t="s">
-        <v>4595</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -23121,7 +23132,7 @@
         <v>2573</v>
       </c>
       <c r="D546" t="s">
-        <v>4589</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -23157,7 +23168,7 @@
         <v>988</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>4724</v>
+        <v>4721</v>
       </c>
       <c r="C549" s="6" t="s">
         <v>2178</v>
@@ -23177,7 +23188,7 @@
         <v>2075</v>
       </c>
       <c r="D550" t="s">
-        <v>4465</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -23185,10 +23196,10 @@
         <v>991</v>
       </c>
       <c r="B551" s="30" t="s">
-        <v>4894</v>
+        <v>4891</v>
       </c>
       <c r="C551" s="6" t="s">
-        <v>4893</v>
+        <v>4890</v>
       </c>
       <c r="D551" t="s">
         <v>3754</v>
@@ -23232,8 +23243,8 @@
       <c r="C554" s="6" t="s">
         <v>2572</v>
       </c>
-      <c r="D554" s="42" t="s">
-        <v>4440</v>
+      <c r="D554" s="41" t="s">
+        <v>4437</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -23246,8 +23257,8 @@
       <c r="C555" s="6" t="s">
         <v>2569</v>
       </c>
-      <c r="D555" s="46" t="s">
-        <v>4600</v>
+      <c r="D555" s="45" t="s">
+        <v>4597</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -23326,8 +23337,8 @@
       <c r="C561" s="6" t="s">
         <v>2236</v>
       </c>
-      <c r="D561" s="56" t="s">
-        <v>4721</v>
+      <c r="D561" s="55" t="s">
+        <v>4718</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -23363,7 +23374,7 @@
         <v>1015</v>
       </c>
       <c r="B564" s="30" t="s">
-        <v>4907</v>
+        <v>4904</v>
       </c>
       <c r="C564" s="6" t="s">
         <v>2238</v>
@@ -23383,7 +23394,7 @@
         <v>2324</v>
       </c>
       <c r="D565" t="s">
-        <v>4774</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -23464,8 +23475,8 @@
       <c r="C571" s="6" t="s">
         <v>2403</v>
       </c>
-      <c r="D571" s="46" t="s">
-        <v>4604</v>
+      <c r="D571" s="45" t="s">
+        <v>4601</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -23478,8 +23489,8 @@
       <c r="C572" s="6" t="s">
         <v>2404</v>
       </c>
-      <c r="D572" s="56" t="s">
-        <v>4916</v>
+      <c r="D572" s="55" t="s">
+        <v>4913</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -23661,7 +23672,7 @@
         <v>2579</v>
       </c>
       <c r="D585" t="s">
-        <v>4525</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -23716,8 +23727,8 @@
       <c r="C589" s="6" t="s">
         <v>2581</v>
       </c>
-      <c r="D589" s="46" t="s">
-        <v>4545</v>
+      <c r="D589" s="45" t="s">
+        <v>4542</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -23773,7 +23784,7 @@
         <v>2396</v>
       </c>
       <c r="D593" t="s">
-        <v>4841</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -23829,7 +23840,7 @@
         <v>2398</v>
       </c>
       <c r="D597" t="s">
-        <v>4735</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -23843,7 +23854,7 @@
         <v>2410</v>
       </c>
       <c r="D598" t="s">
-        <v>4863</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -23851,10 +23862,10 @@
         <v>1083</v>
       </c>
       <c r="B599" s="30" t="s">
-        <v>4583</v>
+        <v>4580</v>
       </c>
       <c r="C599" s="6" t="s">
-        <v>4582</v>
+        <v>4579</v>
       </c>
       <c r="D599" t="s">
         <v>3788</v>
@@ -23966,8 +23977,8 @@
       <c r="C607" s="6" t="s">
         <v>2616</v>
       </c>
-      <c r="D607" s="42" t="s">
-        <v>4460</v>
+      <c r="D607" s="41" t="s">
+        <v>4457</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -23980,8 +23991,8 @@
       <c r="C608" s="6" t="s">
         <v>2650</v>
       </c>
-      <c r="D608" s="46" t="s">
-        <v>4637</v>
+      <c r="D608" s="45" t="s">
+        <v>4634</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
@@ -23994,8 +24005,8 @@
       <c r="C609" s="6" t="s">
         <v>2617</v>
       </c>
-      <c r="D609" s="46" t="s">
-        <v>4587</v>
+      <c r="D609" s="45" t="s">
+        <v>4584</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -24023,7 +24034,7 @@
         <v>2651</v>
       </c>
       <c r="D611" t="s">
-        <v>4892</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -24031,7 +24042,7 @@
         <v>1108</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>4705</v>
+        <v>4702</v>
       </c>
       <c r="C612" s="6" t="s">
         <v>2076</v>
@@ -24045,10 +24056,10 @@
         <v>1109</v>
       </c>
       <c r="B613" s="30" t="s">
-        <v>4674</v>
+        <v>4671</v>
       </c>
       <c r="C613" s="6" t="s">
-        <v>4673</v>
+        <v>4670</v>
       </c>
       <c r="D613" t="s">
         <v>3797</v>
@@ -24065,7 +24076,7 @@
         <v>2368</v>
       </c>
       <c r="D614" t="s">
-        <v>4765</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -24079,7 +24090,7 @@
         <v>3264</v>
       </c>
       <c r="D615" t="s">
-        <v>4563</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -24087,10 +24098,10 @@
         <v>1114</v>
       </c>
       <c r="B616" s="30" t="s">
-        <v>4779</v>
+        <v>4776</v>
       </c>
       <c r="C616" s="6" t="s">
-        <v>4778</v>
+        <v>4775</v>
       </c>
       <c r="D616" t="s">
         <v>3798</v>
@@ -24401,7 +24412,7 @@
         <v>2657</v>
       </c>
       <c r="D639" t="s">
-        <v>4585</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
@@ -24454,7 +24465,7 @@
         <v>1162</v>
       </c>
       <c r="C643" s="6" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="D643" t="s">
         <v>3817</v>
@@ -24552,10 +24563,10 @@
         <v>1845</v>
       </c>
       <c r="C650" s="6" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="D650" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
@@ -24577,10 +24588,10 @@
         <v>1178</v>
       </c>
       <c r="B652" s="30" t="s">
-        <v>4848</v>
+        <v>4845</v>
       </c>
       <c r="C652" s="6" t="s">
-        <v>4847</v>
+        <v>4844</v>
       </c>
       <c r="D652" t="s">
         <v>3825</v>
@@ -24625,7 +24636,7 @@
         <v>2134</v>
       </c>
       <c r="D655" t="s">
-        <v>4866</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
@@ -24639,7 +24650,7 @@
         <v>2663</v>
       </c>
       <c r="D656" t="s">
-        <v>4540</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
@@ -24743,7 +24754,7 @@
         <v>2665</v>
       </c>
       <c r="D664" t="s">
-        <v>4820</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
@@ -24827,7 +24838,7 @@
         <v>2666</v>
       </c>
       <c r="D670" t="s">
-        <v>4435</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
@@ -24869,7 +24880,7 @@
         <v>2668</v>
       </c>
       <c r="D673" t="s">
-        <v>4536</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
@@ -24897,7 +24908,7 @@
         <v>2078</v>
       </c>
       <c r="D675" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
@@ -24910,8 +24921,8 @@
       <c r="C676" s="6" t="s">
         <v>2417</v>
       </c>
-      <c r="D676" s="56" t="s">
-        <v>4680</v>
+      <c r="D676" s="55" t="s">
+        <v>4677</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -24924,8 +24935,8 @@
       <c r="C677" s="6" t="s">
         <v>2333</v>
       </c>
-      <c r="D677" s="56" t="s">
-        <v>4771</v>
+      <c r="D677" s="55" t="s">
+        <v>4768</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -24974,8 +24985,8 @@
       <c r="C681" s="6" t="s">
         <v>2079</v>
       </c>
-      <c r="D681" s="46" t="s">
-        <v>4650</v>
+      <c r="D681" s="45" t="s">
+        <v>4647</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -24988,8 +24999,8 @@
       <c r="C682" s="6" t="s">
         <v>2080</v>
       </c>
-      <c r="D682" s="56" t="s">
-        <v>4739</v>
+      <c r="D682" s="55" t="s">
+        <v>4736</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -25045,7 +25056,7 @@
         <v>2335</v>
       </c>
       <c r="D686" t="s">
-        <v>4783</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
@@ -25073,7 +25084,7 @@
         <v>2337</v>
       </c>
       <c r="D688" t="s">
-        <v>4624</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -25087,7 +25098,7 @@
         <v>2338</v>
       </c>
       <c r="D689" t="s">
-        <v>4627</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -25101,7 +25112,7 @@
         <v>2349</v>
       </c>
       <c r="D690" t="s">
-        <v>4887</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -25129,7 +25140,7 @@
         <v>2347</v>
       </c>
       <c r="D692" t="s">
-        <v>4573</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -25137,10 +25148,10 @@
         <v>1258</v>
       </c>
       <c r="B693" s="6" t="s">
-        <v>4474</v>
+        <v>4471</v>
       </c>
       <c r="C693" s="6" t="s">
-        <v>4475</v>
+        <v>4472</v>
       </c>
       <c r="D693" t="s">
         <v>3843</v>
@@ -25199,7 +25210,7 @@
         <v>2418</v>
       </c>
       <c r="D697" t="s">
-        <v>4539</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
@@ -25207,7 +25218,7 @@
         <v>1267</v>
       </c>
       <c r="B698" s="30" t="s">
-        <v>4855</v>
+        <v>4852</v>
       </c>
       <c r="C698" s="6" t="s">
         <v>2587</v>
@@ -25226,8 +25237,8 @@
       <c r="C699" s="6" t="s">
         <v>2588</v>
       </c>
-      <c r="D699" s="56" t="s">
-        <v>4685</v>
+      <c r="D699" s="55" t="s">
+        <v>4682</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -25235,10 +25246,10 @@
         <v>1270</v>
       </c>
       <c r="B700" s="30" t="s">
-        <v>4711</v>
+        <v>4708</v>
       </c>
       <c r="C700" s="6" t="s">
-        <v>4712</v>
+        <v>4709</v>
       </c>
       <c r="D700" s="2"/>
     </row>
@@ -25288,8 +25299,8 @@
       <c r="C704" s="6" t="s">
         <v>2590</v>
       </c>
-      <c r="D704" s="56" t="s">
-        <v>4687</v>
+      <c r="D704" s="55" t="s">
+        <v>4684</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
@@ -25302,8 +25313,8 @@
       <c r="C705" s="6" t="s">
         <v>2591</v>
       </c>
-      <c r="D705" s="56" t="s">
-        <v>4837</v>
+      <c r="D705" s="55" t="s">
+        <v>4834</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
@@ -25316,8 +25327,8 @@
       <c r="C706" s="6" t="s">
         <v>2592</v>
       </c>
-      <c r="D706" s="46" t="s">
-        <v>4544</v>
+      <c r="D706" s="45" t="s">
+        <v>4541</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
@@ -25330,8 +25341,8 @@
       <c r="C707" s="6" t="s">
         <v>2593</v>
       </c>
-      <c r="D707" s="56" t="s">
-        <v>4755</v>
+      <c r="D707" s="55" t="s">
+        <v>4752</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
@@ -25339,10 +25350,10 @@
         <v>1285</v>
       </c>
       <c r="B708" s="30" t="s">
-        <v>4901</v>
+        <v>4898</v>
       </c>
       <c r="C708" s="6" t="s">
-        <v>4900</v>
+        <v>4897</v>
       </c>
       <c r="D708" t="s">
         <v>3848</v>
@@ -25379,13 +25390,13 @@
         <v>1290</v>
       </c>
       <c r="B711" s="30" t="s">
-        <v>4851</v>
+        <v>4848</v>
       </c>
       <c r="C711" s="6" t="s">
-        <v>4852</v>
-      </c>
-      <c r="D711" s="56" t="s">
-        <v>4850</v>
+        <v>4849</v>
+      </c>
+      <c r="D711" s="55" t="s">
+        <v>4847</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
@@ -25664,8 +25675,8 @@
       <c r="C734" s="6" t="s">
         <v>2367</v>
       </c>
-      <c r="D734" s="56" t="s">
-        <v>4702</v>
+      <c r="D734" s="55" t="s">
+        <v>4699</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
@@ -25673,10 +25684,10 @@
         <v>1337</v>
       </c>
       <c r="B735" s="30" t="s">
-        <v>4879</v>
+        <v>4876</v>
       </c>
       <c r="C735" s="6" t="s">
-        <v>4878</v>
+        <v>4875</v>
       </c>
       <c r="D735" s="2"/>
     </row>
@@ -25685,10 +25696,10 @@
         <v>1338</v>
       </c>
       <c r="B736" s="30" t="s">
-        <v>4769</v>
+        <v>4766</v>
       </c>
       <c r="C736" s="6" t="s">
-        <v>4768</v>
+        <v>4765</v>
       </c>
       <c r="D736" s="2"/>
     </row>
@@ -25697,10 +25708,10 @@
         <v>1339</v>
       </c>
       <c r="B737" s="6" t="s">
-        <v>4513</v>
+        <v>4510</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>4514</v>
+        <v>4511</v>
       </c>
       <c r="D737" s="2"/>
     </row>
@@ -25709,10 +25720,10 @@
         <v>1340</v>
       </c>
       <c r="B738" s="30" t="s">
-        <v>4615</v>
+        <v>4612</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>4614</v>
+        <v>4611</v>
       </c>
       <c r="D738" s="2"/>
     </row>
@@ -25721,10 +25732,10 @@
         <v>1341</v>
       </c>
       <c r="B739" s="30" t="s">
-        <v>4645</v>
+        <v>4642</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>4644</v>
+        <v>4641</v>
       </c>
       <c r="D739" s="2"/>
     </row>
@@ -25733,10 +25744,10 @@
         <v>1342</v>
       </c>
       <c r="B740" s="30" t="s">
-        <v>4781</v>
+        <v>4778</v>
       </c>
       <c r="C740" s="6" t="s">
-        <v>4780</v>
+        <v>4777</v>
       </c>
       <c r="D740" s="2"/>
     </row>
@@ -25745,10 +25756,10 @@
         <v>1343</v>
       </c>
       <c r="B741" s="30" t="s">
-        <v>4639</v>
+        <v>4636</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>4638</v>
+        <v>4635</v>
       </c>
       <c r="D741" s="2"/>
     </row>
@@ -25757,10 +25768,10 @@
         <v>1344</v>
       </c>
       <c r="B742" s="30" t="s">
-        <v>4566</v>
+        <v>4563</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>4565</v>
+        <v>4562</v>
       </c>
       <c r="D742" s="2"/>
     </row>
@@ -25769,10 +25780,10 @@
         <v>1345</v>
       </c>
       <c r="B743" s="30" t="s">
-        <v>4785</v>
+        <v>4782</v>
       </c>
       <c r="C743" s="6" t="s">
-        <v>4784</v>
+        <v>4781</v>
       </c>
       <c r="D743" s="2"/>
     </row>
@@ -25781,10 +25792,10 @@
         <v>1346</v>
       </c>
       <c r="B744" s="30" t="s">
-        <v>4794</v>
+        <v>4791</v>
       </c>
       <c r="C744" s="6" t="s">
-        <v>4793</v>
+        <v>4790</v>
       </c>
       <c r="D744" s="2"/>
     </row>
@@ -25793,10 +25804,10 @@
         <v>1347</v>
       </c>
       <c r="B745" s="30" t="s">
-        <v>4868</v>
+        <v>4865</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>4867</v>
+        <v>4864</v>
       </c>
       <c r="D745" s="2"/>
     </row>
@@ -25805,10 +25816,10 @@
         <v>1348</v>
       </c>
       <c r="B746" s="30" t="s">
-        <v>4581</v>
+        <v>4578</v>
       </c>
       <c r="C746" s="6" t="s">
-        <v>4580</v>
+        <v>4577</v>
       </c>
       <c r="D746" s="2"/>
     </row>
@@ -25817,10 +25828,10 @@
         <v>1349</v>
       </c>
       <c r="B747" s="30" t="s">
-        <v>4806</v>
+        <v>4803</v>
       </c>
       <c r="C747" s="6" t="s">
-        <v>4805</v>
+        <v>4802</v>
       </c>
       <c r="D747" s="2"/>
     </row>
@@ -25829,10 +25840,10 @@
         <v>1350</v>
       </c>
       <c r="B748" s="30" t="s">
-        <v>4717</v>
+        <v>4714</v>
       </c>
       <c r="C748" s="6" t="s">
-        <v>4716</v>
+        <v>4713</v>
       </c>
       <c r="D748" s="2"/>
     </row>
@@ -25841,10 +25852,10 @@
         <v>1351</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>4472</v>
+        <v>4469</v>
       </c>
       <c r="C749" s="6" t="s">
-        <v>4473</v>
+        <v>4470</v>
       </c>
       <c r="D749" s="2"/>
     </row>
@@ -25934,8 +25945,8 @@
       <c r="C756" s="6" t="s">
         <v>2599</v>
       </c>
-      <c r="D756" s="56" t="s">
-        <v>4714</v>
+      <c r="D756" s="55" t="s">
+        <v>4711</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
@@ -25948,8 +25959,8 @@
       <c r="C757" s="6" t="s">
         <v>2082</v>
       </c>
-      <c r="D757" s="56" t="s">
-        <v>4822</v>
+      <c r="D757" s="55" t="s">
+        <v>4819</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -26058,7 +26069,7 @@
         <v>1383</v>
       </c>
       <c r="C765" s="6" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="D765" t="s">
         <v>3860</v>
@@ -26072,7 +26083,7 @@
         <v>1385</v>
       </c>
       <c r="C766" s="6" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="D766" t="s">
         <v>3861</v>
@@ -26083,10 +26094,10 @@
         <v>1386</v>
       </c>
       <c r="B767" s="6" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C767" s="6" t="s">
         <v>4287</v>
-      </c>
-      <c r="C767" s="6" t="s">
-        <v>4288</v>
       </c>
       <c r="D767" t="s">
         <v>3862</v>
@@ -26100,7 +26111,7 @@
         <v>1388</v>
       </c>
       <c r="C768" s="6" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="D768" t="s">
         <v>3863</v>
@@ -26124,14 +26135,14 @@
       <c r="A770" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="B770" s="55" t="s">
-        <v>4660</v>
+      <c r="B770" s="54" t="s">
+        <v>4657</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>4659</v>
+        <v>4656</v>
       </c>
       <c r="D770" t="s">
-        <v>4661</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
@@ -26405,13 +26416,13 @@
         <v>1430</v>
       </c>
       <c r="B790" s="6" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C790" s="6" t="s">
+        <v>4351</v>
+      </c>
+      <c r="D790" t="s">
         <v>4350</v>
-      </c>
-      <c r="C790" s="6" t="s">
-        <v>4352</v>
-      </c>
-      <c r="D790" t="s">
-        <v>4351</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
@@ -26424,8 +26435,8 @@
       <c r="C791" s="6" t="s">
         <v>2086</v>
       </c>
-      <c r="D791" s="56" t="s">
-        <v>4698</v>
+      <c r="D791" s="55" t="s">
+        <v>4695</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
@@ -26438,8 +26449,8 @@
       <c r="C792" s="6" t="s">
         <v>2087</v>
       </c>
-      <c r="D792" s="46" t="s">
-        <v>4518</v>
+      <c r="D792" s="45" t="s">
+        <v>4515</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
@@ -26509,7 +26520,7 @@
         <v>2610</v>
       </c>
       <c r="D797" t="s">
-        <v>4632</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
@@ -26523,7 +26534,7 @@
         <v>2611</v>
       </c>
       <c r="D798" t="s">
-        <v>4552</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
@@ -26995,7 +27006,7 @@
         <v>2089</v>
       </c>
       <c r="D834" t="s">
-        <v>4789</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.25">
@@ -27141,10 +27152,10 @@
         <v>1538</v>
       </c>
       <c r="B845" s="30" t="s">
-        <v>4854</v>
+        <v>4851</v>
       </c>
       <c r="C845" s="6" t="s">
-        <v>4853</v>
+        <v>4850</v>
       </c>
       <c r="D845" s="2"/>
     </row>
@@ -27153,10 +27164,10 @@
         <v>1539</v>
       </c>
       <c r="B846" s="6" t="s">
-        <v>4682</v>
+        <v>4679</v>
       </c>
       <c r="C846" s="6" t="s">
-        <v>4681</v>
+        <v>4678</v>
       </c>
       <c r="D846" s="2"/>
     </row>
@@ -27165,10 +27176,10 @@
         <v>1540</v>
       </c>
       <c r="B847" s="6" t="s">
-        <v>4729</v>
+        <v>4726</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>4728</v>
+        <v>4725</v>
       </c>
       <c r="D847" s="2"/>
     </row>
@@ -27177,10 +27188,10 @@
         <v>1541</v>
       </c>
       <c r="B848" s="6" t="s">
-        <v>4492</v>
+        <v>4489</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>4493</v>
+        <v>4490</v>
       </c>
       <c r="D848" s="2"/>
     </row>
@@ -27189,10 +27200,10 @@
         <v>1542</v>
       </c>
       <c r="B849" s="6" t="s">
-        <v>4594</v>
+        <v>4591</v>
       </c>
       <c r="C849" s="6" t="s">
-        <v>4593</v>
+        <v>4590</v>
       </c>
       <c r="D849" s="2"/>
     </row>
@@ -27201,10 +27212,10 @@
         <v>1543</v>
       </c>
       <c r="B850" s="6" t="s">
-        <v>4643</v>
+        <v>4640</v>
       </c>
       <c r="C850" s="6" t="s">
-        <v>4642</v>
+        <v>4639</v>
       </c>
       <c r="D850" s="2"/>
     </row>
@@ -27213,10 +27224,10 @@
         <v>1544</v>
       </c>
       <c r="B851" s="30" t="s">
-        <v>4636</v>
+        <v>4633</v>
       </c>
       <c r="C851" s="6" t="s">
-        <v>4635</v>
+        <v>4632</v>
       </c>
       <c r="D851" s="2"/>
     </row>
@@ -27225,10 +27236,10 @@
         <v>1545</v>
       </c>
       <c r="B852" s="6" t="s">
-        <v>4610</v>
+        <v>4607</v>
       </c>
       <c r="C852" s="6" t="s">
-        <v>4609</v>
+        <v>4606</v>
       </c>
       <c r="D852" s="2"/>
     </row>
@@ -27237,10 +27248,10 @@
         <v>1546</v>
       </c>
       <c r="B853" s="6" t="s">
-        <v>4891</v>
+        <v>4888</v>
       </c>
       <c r="C853" s="6" t="s">
-        <v>4890</v>
+        <v>4887</v>
       </c>
       <c r="D853" s="2"/>
     </row>
@@ -27249,10 +27260,10 @@
         <v>1547</v>
       </c>
       <c r="B854" s="30" t="s">
-        <v>4641</v>
+        <v>4638</v>
       </c>
       <c r="C854" s="6" t="s">
-        <v>4640</v>
+        <v>4637</v>
       </c>
       <c r="D854" s="2"/>
     </row>
@@ -27261,10 +27272,10 @@
         <v>1548</v>
       </c>
       <c r="B855" s="30" t="s">
-        <v>4871</v>
+        <v>4868</v>
       </c>
       <c r="C855" s="6" t="s">
-        <v>4870</v>
+        <v>4867</v>
       </c>
       <c r="D855" s="2"/>
     </row>
@@ -27273,10 +27284,10 @@
         <v>1549</v>
       </c>
       <c r="B856" s="30" t="s">
-        <v>4788</v>
+        <v>4785</v>
       </c>
       <c r="C856" s="6" t="s">
-        <v>4787</v>
+        <v>4784</v>
       </c>
       <c r="D856" s="2"/>
     </row>
@@ -27285,10 +27296,10 @@
         <v>1550</v>
       </c>
       <c r="B857" s="6" t="s">
-        <v>4426</v>
+        <v>4423</v>
       </c>
       <c r="C857" s="6" t="s">
-        <v>4427</v>
+        <v>4424</v>
       </c>
       <c r="D857" s="2"/>
     </row>
@@ -27297,10 +27308,10 @@
         <v>1551</v>
       </c>
       <c r="B858" s="30" t="s">
-        <v>4914</v>
+        <v>4911</v>
       </c>
       <c r="C858" s="6" t="s">
-        <v>4913</v>
+        <v>4910</v>
       </c>
       <c r="D858" s="2"/>
     </row>
@@ -27309,10 +27320,10 @@
         <v>1552</v>
       </c>
       <c r="B859" s="6" t="s">
-        <v>4438</v>
+        <v>4435</v>
       </c>
       <c r="C859" s="6" t="s">
-        <v>4439</v>
+        <v>4436</v>
       </c>
       <c r="D859" s="2"/>
     </row>
@@ -27321,10 +27332,10 @@
         <v>1553</v>
       </c>
       <c r="B860" s="6" t="s">
-        <v>4700</v>
+        <v>4697</v>
       </c>
       <c r="C860" s="6" t="s">
-        <v>4699</v>
+        <v>4696</v>
       </c>
       <c r="D860" s="2"/>
     </row>
@@ -27333,10 +27344,10 @@
         <v>1554</v>
       </c>
       <c r="B861" s="6" t="s">
-        <v>4829</v>
+        <v>4826</v>
       </c>
       <c r="C861" s="6" t="s">
-        <v>4828</v>
+        <v>4825</v>
       </c>
       <c r="D861" s="2"/>
     </row>
@@ -27345,10 +27356,10 @@
         <v>1555</v>
       </c>
       <c r="B862" s="6" t="s">
-        <v>4523</v>
-      </c>
-      <c r="C862" s="47" t="s">
-        <v>4522</v>
+        <v>4520</v>
+      </c>
+      <c r="C862" s="46" t="s">
+        <v>4519</v>
       </c>
       <c r="D862" s="2"/>
     </row>
@@ -27433,10 +27444,10 @@
         <v>1568</v>
       </c>
       <c r="B869" s="30" t="s">
-        <v>4652</v>
+        <v>4649</v>
       </c>
       <c r="C869" s="6" t="s">
-        <v>4651</v>
+        <v>4648</v>
       </c>
       <c r="D869" s="2"/>
     </row>
@@ -28014,7 +28025,7 @@
         <v>1662</v>
       </c>
       <c r="C916" s="6" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="D916" t="s">
         <v>3923</v>
@@ -28045,7 +28056,7 @@
         <v>2529</v>
       </c>
       <c r="D918" t="s">
-        <v>4672</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.25">
@@ -28110,7 +28121,7 @@
         <v>1675</v>
       </c>
       <c r="C923" s="6" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="D923" t="s">
         <v>3928</v>
@@ -28180,7 +28191,7 @@
         <v>1684</v>
       </c>
       <c r="C928" s="6" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="D928" t="s">
         <v>3933</v>
@@ -28365,10 +28376,10 @@
         <v>1713</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="C943" s="6" t="s">
-        <v>4505</v>
+        <v>4502</v>
       </c>
       <c r="D943" t="s">
         <v>3937</v>
@@ -28468,7 +28479,7 @@
         <v>1729</v>
       </c>
       <c r="C951" s="6" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="D951" s="2"/>
     </row>
@@ -29127,10 +29138,10 @@
         <v>1838</v>
       </c>
       <c r="B1006" s="6" t="s">
-        <v>4601</v>
+        <v>4598</v>
       </c>
       <c r="C1006" s="6" t="s">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="D1006" s="2"/>
     </row>
@@ -29528,8 +29539,8 @@
       <c r="C1038" s="12" t="s">
         <v>2511</v>
       </c>
-      <c r="D1038" s="42" t="s">
-        <v>4471</v>
+      <c r="D1038" s="41" t="s">
+        <v>4468</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
@@ -29542,8 +29553,8 @@
       <c r="C1039" s="12" t="s">
         <v>2512</v>
       </c>
-      <c r="D1039" s="46" t="s">
-        <v>4616</v>
+      <c r="D1039" s="45" t="s">
+        <v>4613</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
@@ -30100,8 +30111,8 @@
       <c r="C1079" s="19" t="s">
         <v>3098</v>
       </c>
-      <c r="D1079" s="56" t="s">
-        <v>4791</v>
+      <c r="D1079" s="55" t="s">
+        <v>4788</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
@@ -30133,14 +30144,14 @@
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1082" s="39" t="s">
+      <c r="A1082" s="38" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B1082" s="37" t="s">
         <v>4410</v>
       </c>
-      <c r="B1082" s="38" t="s">
-        <v>4411</v>
-      </c>
-      <c r="C1082" s="38" t="s">
-        <v>4420</v>
+      <c r="C1082" s="37" t="s">
+        <v>4417</v>
       </c>
       <c r="D1082" s="32"/>
     </row>
@@ -30546,8 +30557,8 @@
       <c r="C1111" s="19" t="s">
         <v>3014</v>
       </c>
-      <c r="D1111" s="56" t="s">
-        <v>4819</v>
+      <c r="D1111" s="55" t="s">
+        <v>4816</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
@@ -30560,8 +30571,8 @@
       <c r="C1112" s="19" t="s">
         <v>3087</v>
       </c>
-      <c r="D1112" s="56" t="s">
-        <v>4844</v>
+      <c r="D1112" s="55" t="s">
+        <v>4841</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
@@ -30804,11 +30815,11 @@
       <c r="A1130" s="15" t="s">
         <v>2951</v>
       </c>
-      <c r="B1130" s="53" t="s">
-        <v>4630</v>
-      </c>
-      <c r="C1130" s="54" t="s">
-        <v>4629</v>
+      <c r="B1130" s="52" t="s">
+        <v>4627</v>
+      </c>
+      <c r="C1130" s="53" t="s">
+        <v>4626</v>
       </c>
       <c r="D1130" s="23"/>
     </row>
@@ -30816,11 +30827,11 @@
       <c r="A1131" s="15" t="s">
         <v>2952</v>
       </c>
-      <c r="B1131" s="44" t="s">
-        <v>4488</v>
-      </c>
-      <c r="C1131" s="44" t="s">
-        <v>4489</v>
+      <c r="B1131" s="43" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C1131" s="43" t="s">
+        <v>4486</v>
       </c>
       <c r="D1131" s="23"/>
     </row>
@@ -30828,11 +30839,11 @@
       <c r="A1132" s="15" t="s">
         <v>2953</v>
       </c>
-      <c r="B1132" s="44" t="s">
-        <v>4468</v>
-      </c>
-      <c r="C1132" s="44" t="s">
-        <v>4469</v>
+      <c r="B1132" s="43" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C1132" s="43" t="s">
+        <v>4466</v>
       </c>
       <c r="D1132" s="23"/>
     </row>
@@ -30840,11 +30851,11 @@
       <c r="A1133" s="15" t="s">
         <v>2954</v>
       </c>
-      <c r="B1133" s="60" t="s">
-        <v>4910</v>
-      </c>
-      <c r="C1133" s="59" t="s">
-        <v>4909</v>
+      <c r="B1133" s="59" t="s">
+        <v>4907</v>
+      </c>
+      <c r="C1133" s="58" t="s">
+        <v>4906</v>
       </c>
       <c r="D1133" s="23"/>
     </row>
@@ -31322,7 +31333,7 @@
       <c r="A1173" s="15" t="s">
         <v>2994</v>
       </c>
-      <c r="B1173" s="59" t="s">
+      <c r="B1173" s="58" t="s">
         <v>2857</v>
       </c>
       <c r="C1173" s="19" t="s">
@@ -31354,8 +31365,8 @@
       <c r="C1175" s="19" t="s">
         <v>3056</v>
       </c>
-      <c r="D1175" s="46" t="s">
-        <v>4647</v>
+      <c r="D1175" s="45" t="s">
+        <v>4644</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
@@ -31486,8 +31497,8 @@
       <c r="A1186" s="15" t="s">
         <v>3171</v>
       </c>
-      <c r="B1186" s="52" t="s">
-        <v>4572</v>
+      <c r="B1186" s="51" t="s">
+        <v>4569</v>
       </c>
       <c r="C1186" s="19" t="s">
         <v>3186</v>
@@ -31516,8 +31527,8 @@
       <c r="C1188" s="16" t="s">
         <v>3395</v>
       </c>
-      <c r="D1188" s="48" t="s">
-        <v>4586</v>
+      <c r="D1188" s="47" t="s">
+        <v>4583</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
@@ -31570,7 +31581,7 @@
         <v>4195</v>
       </c>
       <c r="C1192" s="19" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="D1192" s="23" t="s">
         <v>4196</v>
@@ -31586,8 +31597,8 @@
       <c r="C1193" s="19" t="s">
         <v>4083</v>
       </c>
-      <c r="D1193" s="45" t="s">
-        <v>4491</v>
+      <c r="D1193" s="44" t="s">
+        <v>4488</v>
       </c>
     </row>
     <row r="1194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31650,9 +31661,7 @@
       <c r="C1198" s="19" t="s">
         <v>4071</v>
       </c>
-      <c r="D1198" s="23" t="s">
-        <v>4197</v>
-      </c>
+      <c r="D1198" s="23"/>
     </row>
     <row r="1199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1199" s="17" t="s">
@@ -31686,7 +31695,7 @@
         <v>3163</v>
       </c>
       <c r="C1201" s="19" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="D1201" s="23"/>
     </row>
@@ -31727,17 +31736,17 @@
       <c r="D1204" s="23"/>
     </row>
     <row r="1205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1205" s="40" t="s">
+      <c r="A1205" s="39" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B1205" s="22" t="s">
         <v>4412</v>
       </c>
-      <c r="B1205" s="22" t="s">
+      <c r="C1205" s="37" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D1205" s="23" t="s">
         <v>4413</v>
-      </c>
-      <c r="C1205" s="38" t="s">
-        <v>4421</v>
-      </c>
-      <c r="D1205" s="23" t="s">
-        <v>4414</v>
       </c>
     </row>
     <row r="1206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32093,7 +32102,7 @@
         <v>4100</v>
       </c>
       <c r="D1233" s="23" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="1234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32121,7 +32130,7 @@
         <v>4101</v>
       </c>
       <c r="D1235" s="23" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32201,7 +32210,7 @@
         <v>4103</v>
       </c>
       <c r="D1241" s="23" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32215,7 +32224,7 @@
         <v>4104</v>
       </c>
       <c r="D1242" s="23" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32229,7 +32238,7 @@
         <v>4106</v>
       </c>
       <c r="D1243" s="23" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="1244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32237,13 +32246,13 @@
         <v>3538</v>
       </c>
       <c r="B1244" s="21" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C1244" s="19" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D1244" s="23" t="s">
         <v>4203</v>
-      </c>
-      <c r="C1244" s="19" t="s">
-        <v>4235</v>
-      </c>
-      <c r="D1244" s="23" t="s">
-        <v>4204</v>
       </c>
     </row>
     <row r="1245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32251,10 +32260,10 @@
         <v>3539</v>
       </c>
       <c r="B1245" s="21" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="C1245" s="19" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="D1245" s="23" t="s">
         <v>4026</v>
@@ -32285,7 +32294,7 @@
         <v>4108</v>
       </c>
       <c r="D1247" s="23" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32293,13 +32302,13 @@
         <v>3542</v>
       </c>
       <c r="B1248" s="22" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C1248" s="19" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D1248" s="23" t="s">
         <v>4207</v>
-      </c>
-      <c r="C1248" s="19" t="s">
-        <v>4237</v>
-      </c>
-      <c r="D1248" s="23" t="s">
-        <v>4208</v>
       </c>
     </row>
     <row r="1249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32354,8 +32363,8 @@
       <c r="C1252" s="19" t="s">
         <v>4114</v>
       </c>
-      <c r="D1252" s="58" t="s">
-        <v>4911</v>
+      <c r="D1252" s="57" t="s">
+        <v>4908</v>
       </c>
     </row>
     <row r="1253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32366,7 +32375,7 @@
         <v>3459</v>
       </c>
       <c r="C1253" s="31" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="D1253" s="23" t="s">
         <v>4031</v>
@@ -32408,7 +32417,7 @@
         <v>4133</v>
       </c>
       <c r="C1256" s="19" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="D1256" s="23" t="s">
         <v>4134</v>
@@ -32424,8 +32433,8 @@
       <c r="C1257" s="19" t="s">
         <v>4115</v>
       </c>
-      <c r="D1257" s="46" t="s">
-        <v>4554</v>
+      <c r="D1257" s="45" t="s">
+        <v>4551</v>
       </c>
     </row>
     <row r="1258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32438,8 +32447,8 @@
       <c r="C1258" s="19" t="s">
         <v>4116</v>
       </c>
-      <c r="D1258" s="58" t="s">
-        <v>4889</v>
+      <c r="D1258" s="57" t="s">
+        <v>4886</v>
       </c>
     </row>
     <row r="1259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32447,13 +32456,13 @@
         <v>3552</v>
       </c>
       <c r="B1259" s="22" t="s">
+        <v>4208</v>
+      </c>
+      <c r="C1259" s="19" t="s">
+        <v>4238</v>
+      </c>
+      <c r="D1259" s="23" t="s">
         <v>4209</v>
-      </c>
-      <c r="C1259" s="19" t="s">
-        <v>4239</v>
-      </c>
-      <c r="D1259" s="23" t="s">
-        <v>4210</v>
       </c>
     </row>
     <row r="1260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32461,13 +32470,13 @@
         <v>3553</v>
       </c>
       <c r="B1260" s="22" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C1260" s="19" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D1260" s="23" t="s">
         <v>4211</v>
-      </c>
-      <c r="C1260" s="19" t="s">
-        <v>4240</v>
-      </c>
-      <c r="D1260" s="23" t="s">
-        <v>4212</v>
       </c>
     </row>
     <row r="1261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32480,8 +32489,8 @@
       <c r="C1261" s="19" t="s">
         <v>4117</v>
       </c>
-      <c r="D1261" s="58" t="s">
-        <v>4904</v>
+      <c r="D1261" s="57" t="s">
+        <v>4901</v>
       </c>
     </row>
     <row r="1262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32509,7 +32518,7 @@
         <v>4126</v>
       </c>
       <c r="D1263" s="23" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32517,13 +32526,13 @@
         <v>3557</v>
       </c>
       <c r="B1264" s="22" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C1264" s="19" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D1264" s="23" t="s">
         <v>4214</v>
-      </c>
-      <c r="C1264" s="19" t="s">
-        <v>4241</v>
-      </c>
-      <c r="D1264" s="23" t="s">
-        <v>4215</v>
       </c>
     </row>
     <row r="1265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32579,7 +32588,7 @@
         <v>4066</v>
       </c>
       <c r="D1268" s="23" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32587,13 +32596,13 @@
         <v>3562</v>
       </c>
       <c r="B1269" s="22" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C1269" s="19" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D1269" s="23" t="s">
         <v>4217</v>
-      </c>
-      <c r="C1269" s="19" t="s">
-        <v>4242</v>
-      </c>
-      <c r="D1269" s="23" t="s">
-        <v>4218</v>
       </c>
     </row>
     <row r="1270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32615,27 +32624,27 @@
         <v>3564</v>
       </c>
       <c r="B1271" s="22" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C1271" s="19" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D1271" s="23" t="s">
         <v>4219</v>
-      </c>
-      <c r="C1271" s="19" t="s">
-        <v>4243</v>
-      </c>
-      <c r="D1271" s="23" t="s">
-        <v>4220</v>
       </c>
     </row>
     <row r="1272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1272" s="17" t="s">
         <v>3565</v>
       </c>
-      <c r="B1272" s="50" t="s">
-        <v>4548</v>
+      <c r="B1272" s="49" t="s">
+        <v>4545</v>
       </c>
       <c r="C1272" s="19" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="D1272" s="23" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1273" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32643,13 +32652,13 @@
         <v>3566</v>
       </c>
       <c r="B1273" s="22" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C1273" s="19" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D1273" s="23" t="s">
         <v>4222</v>
-      </c>
-      <c r="C1273" s="19" t="s">
-        <v>4245</v>
-      </c>
-      <c r="D1273" s="23" t="s">
-        <v>4223</v>
       </c>
     </row>
     <row r="1274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32663,7 +32672,7 @@
         <v>4076</v>
       </c>
       <c r="D1274" s="23" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32677,7 +32686,7 @@
         <v>4128</v>
       </c>
       <c r="D1275" s="23" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32699,13 +32708,13 @@
         <v>3570</v>
       </c>
       <c r="B1277" s="22" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="C1277" s="19" t="s">
-        <v>4246</v>
-      </c>
-      <c r="D1277" s="46" t="s">
-        <v>4533</v>
+        <v>4245</v>
+      </c>
+      <c r="D1277" s="45" t="s">
+        <v>4530</v>
       </c>
     </row>
     <row r="1278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32719,7 +32728,7 @@
         <v>4065</v>
       </c>
       <c r="D1278" s="26" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32730,10 +32739,10 @@
         <v>3476</v>
       </c>
       <c r="C1279" s="31" t="s">
-        <v>4408</v>
-      </c>
-      <c r="D1279" s="58" t="s">
-        <v>4713</v>
+        <v>4407</v>
+      </c>
+      <c r="D1279" s="57" t="s">
+        <v>4710</v>
       </c>
     </row>
     <row r="1280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32741,13 +32750,13 @@
         <v>3573</v>
       </c>
       <c r="B1280" s="22" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C1280" s="19" t="s">
+        <v>4246</v>
+      </c>
+      <c r="D1280" s="23" t="s">
         <v>4227</v>
-      </c>
-      <c r="C1280" s="19" t="s">
-        <v>4247</v>
-      </c>
-      <c r="D1280" s="23" t="s">
-        <v>4228</v>
       </c>
     </row>
     <row r="1281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32761,7 +32770,7 @@
         <v>4075</v>
       </c>
       <c r="D1281" s="23" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32783,7 +32792,7 @@
         <v>3576</v>
       </c>
       <c r="B1283" s="22" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="C1283" s="19" t="s">
         <v>4067</v>
@@ -32894,14 +32903,14 @@
       <c r="A1291" s="18" t="s">
         <v>4153</v>
       </c>
-      <c r="B1291" s="61" t="s">
+      <c r="B1291" s="60" t="s">
         <v>4135</v>
       </c>
       <c r="C1291" s="19" t="s">
-        <v>4248</v>
-      </c>
-      <c r="D1291" s="58" t="s">
-        <v>4915</v>
+        <v>4247</v>
+      </c>
+      <c r="D1291" s="57" t="s">
+        <v>4912</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
@@ -32912,7 +32921,7 @@
         <v>4136</v>
       </c>
       <c r="C1292" s="19" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="D1292" s="23" t="s">
         <v>4174</v>
@@ -32926,7 +32935,7 @@
         <v>4137</v>
       </c>
       <c r="C1293" s="19" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="D1293" s="23" t="s">
         <v>4175</v>
@@ -32940,10 +32949,10 @@
         <v>4138</v>
       </c>
       <c r="C1294" s="19" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="D1294" s="26" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
@@ -32954,7 +32963,7 @@
         <v>4139</v>
       </c>
       <c r="C1295" s="19" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="D1295" s="23" t="s">
         <v>4176</v>
@@ -32968,10 +32977,10 @@
         <v>4140</v>
       </c>
       <c r="C1296" s="19" t="s">
-        <v>4263</v>
-      </c>
-      <c r="D1296" s="42" t="s">
-        <v>4470</v>
+        <v>4262</v>
+      </c>
+      <c r="D1296" s="41" t="s">
+        <v>4467</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
@@ -32982,7 +32991,7 @@
         <v>4141</v>
       </c>
       <c r="C1297" s="19" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="D1297" s="23" t="s">
         <v>4177</v>
@@ -32996,7 +33005,7 @@
         <v>4142</v>
       </c>
       <c r="C1298" s="19" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="D1298" s="23" t="s">
         <v>4178</v>
@@ -33010,7 +33019,7 @@
         <v>4143</v>
       </c>
       <c r="C1299" s="19" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="D1299" s="23" t="s">
         <v>4179</v>
@@ -33024,7 +33033,7 @@
         <v>4144</v>
       </c>
       <c r="C1300" s="19" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="D1300" s="23" t="s">
         <v>4180</v>
@@ -33038,7 +33047,7 @@
         <v>4145</v>
       </c>
       <c r="C1301" s="19" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="D1301" s="23" t="s">
         <v>4181</v>
@@ -33052,7 +33061,7 @@
         <v>4146</v>
       </c>
       <c r="C1302" s="19" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="D1302" s="23" t="s">
         <v>4182</v>
@@ -33066,7 +33075,7 @@
         <v>4147</v>
       </c>
       <c r="C1303" s="19" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="D1303" s="23" t="s">
         <v>4183</v>
@@ -33080,7 +33089,7 @@
         <v>4148</v>
       </c>
       <c r="C1304" s="19" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="D1304" s="23" t="s">
         <v>4184</v>
@@ -33094,7 +33103,7 @@
         <v>4149</v>
       </c>
       <c r="C1305" s="31" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="D1305" s="23" t="s">
         <v>4185</v>
@@ -33108,7 +33117,7 @@
         <v>4150</v>
       </c>
       <c r="C1306" s="19" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="D1306" s="23"/>
     </row>
@@ -33156,381 +33165,383 @@
         <v>4151</v>
       </c>
       <c r="C1310" s="19" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="D1310" s="23"/>
     </row>
     <row r="1311" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1311" s="28" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="B1311" s="25" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="C1311" s="24" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="D1311" s="27" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1312" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1312" s="28" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="B1312" s="25" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="C1312" s="24" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="D1312" s="27" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1313" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1313" s="28" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="B1313" s="25" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="C1313" s="24" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="D1313" s="24" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1314" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1314" s="28" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="B1314" s="25" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="C1314" s="24" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="D1314" s="24" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1315" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1315" s="28" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="B1315" s="25" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="C1315" s="24" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="D1315" s="27" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1316" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1316" s="28" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="B1316" s="25" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="C1316" s="24" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="D1316" s="24" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1317" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1317" s="28" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="B1317" s="25" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="C1317" s="24" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="D1317" s="27" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1318" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1318" s="28" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="B1318" s="25" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="C1318" s="24" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="D1318" s="27" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1319" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1319" s="28" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="B1319" s="25" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="C1319" s="24" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="D1319" s="24" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1320" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1320" s="28" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="B1320" s="25" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C1320" s="24" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="D1320" s="27" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1321" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1321" s="28" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="B1321" s="25" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="C1321" s="24" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="D1321" s="27" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1322" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1322" s="28" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="B1322" s="25" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="C1322" s="24" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="D1322" s="27" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1323" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1323" s="28" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="B1323" s="25" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="C1323" s="24" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="D1323" s="27" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1324" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1324" s="28" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="B1324" s="25" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="C1324" s="24" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="D1324" s="27" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1325" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1325" s="28" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="B1325" s="25" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="C1325" s="24" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="D1325" s="24" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1326" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1326" s="28" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="B1326" s="25" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="C1326" s="24" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="D1326" s="24" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1327" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1327" s="28" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="B1327" s="25" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="C1327" s="24" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="D1327" s="27" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1328" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1328" s="28" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="B1328" s="25" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="C1328" s="24" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="D1328" s="24" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1329" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1329" s="28" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="B1329" s="25" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="C1329" s="24" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="D1329" s="27" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1330" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1330" s="28" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="B1330" s="25" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="C1330" s="24" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="D1330" s="27" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1331" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1331" s="28" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="B1331" s="25" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="C1331" s="24" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="D1331" s="27" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1332" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1332" s="28" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="B1332" s="25" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="C1332" s="24" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="D1332" s="24" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1333" spans="1:4" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1333" s="28" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="B1333" s="25" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="C1333" s="24" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="D1333" s="27" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1334" spans="1:4" s="24" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1334" s="40" t="s">
+      <c r="A1334" s="39" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B1334" s="35" t="s">
         <v>4415</v>
       </c>
-      <c r="B1334" s="36" t="s">
+      <c r="C1334" s="40" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D1334" s="36" t="s">
         <v>4416</v>
-      </c>
-      <c r="C1334" s="41" t="s">
-        <v>4422</v>
-      </c>
-      <c r="D1334" s="37" t="s">
-        <v>4419</v>
       </c>
     </row>
     <row r="1335" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1335" s="28" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="B1335" s="25" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="C1335" s="24" t="s">
-        <v>4401</v>
-      </c>
-      <c r="D1335" s="34"/>
+        <v>4400</v>
+      </c>
+      <c r="D1335" s="61" t="s">
+        <v>4916</v>
+      </c>
     </row>
     <row r="1336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1336" s="28" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="B1336" s="25" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="C1336" s="24" t="s">
-        <v>4406</v>
-      </c>
-      <c r="D1336" s="24" t="s">
-        <v>4417</v>
+        <v>4405</v>
+      </c>
+      <c r="D1336" s="27" t="s">
+        <v>4917</v>
       </c>
     </row>
     <row r="1337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1337" s="28" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="B1337" s="25" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="C1337" s="24" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="D1337" s="24"/>
     </row>
@@ -33542,11 +33553,9 @@
         <v>4152</v>
       </c>
       <c r="C1338" s="19" t="s">
-        <v>4254</v>
-      </c>
-      <c r="D1338" s="24" t="s">
-        <v>4418</v>
-      </c>
+        <v>4253</v>
+      </c>
+      <c r="D1338" s="24"/>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" s="15" t="s">
@@ -33564,7 +33573,7 @@
       <c r="A1340" s="33"/>
       <c r="B1340" s="33"/>
       <c r="C1340" s="33"/>
-      <c r="D1340" s="35"/>
+      <c r="D1340" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CWE-List/CWE-List_v4.4.xlsx
+++ b/CWE-List/CWE-List_v4.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CWE List\v4.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC61B8D5-69E0-47DC-A1A3-1649965AD173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94F436-EAD2-4A55-926B-845979594A57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14881,13 +14881,13 @@
     <t>CWE-453</t>
   </si>
   <si>
-    <t>To ensure the performance and functional reliability of certain components, hardware designers can implement hardware blocks for redundancy in the case that others fail. This redundant block can be prevented from performing as intended if the design allows unauthorized agents to inject errors into it. In this way, a path with injected errors may become</t>
-  </si>
-  <si>
     <t>Hardware, electrical circuits, and semiconductor silicon have thermal side effects, such that some of the energy consumed by the device gets dissipated as heat and increases the temperature of the device. For example, in semiconductors, higher-operating frequency of silicon results in higher power dissipation and heat. The leakage current in CMOS circuits increases with temperature, and this creates positive feedback that can result in thermal runaway and damage the device permanently.
 Any device lacking protections such as thermal sensors, adequate platform cooling or thermal insulation is susceptible to attacks by malicious software that might deliberately operate the device in modes that result in overheating. This can be used as an effective denial of service (DoS) or permanent denial of service (PDoS) attack.
 Depending on the type of hardware device and its expected usage, such thermal overheating can also cause safety hazards and reliability issues. Note that battery failures can also cause device overheating but the mitigations and examples included in this submission cannot reliably protect against a battery failure.
 There can be similar weaknesses with lack of protection from attacks based on overvoltage or overcurrent conditions. However, thermal heat is generated by hardware operation and the device should implement protection from overheating.</t>
+  </si>
+  <si>
+    <t>To ensure the performance and functional reliability of certain components, hardware designers can implement hardware blocks for redundancy in the case that others fail. This redundant block can be prevented from performing as intended if the design allows unauthorized agents to inject errors into it. In this way, a path with injected errors may become unavailable to serve as a redundant channel. This may put the system into a degraded mode of operation which could be exploited by a subsequent attack.</t>
   </si>
 </sst>
 </file>
@@ -15604,8 +15604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A1321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1335" sqref="D1335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33516,7 +33516,7 @@
         <v>4400</v>
       </c>
       <c r="D1335" s="61" t="s">
-        <v>4916</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="1336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33530,7 +33530,7 @@
         <v>4405</v>
       </c>
       <c r="D1336" s="27" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
